--- a/500all/speech_level/speeches_CHRG-114hhrg25005.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg25005.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="220">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>412552</t>
   </si>
   <si>
-    <t>Mark Meadows</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Meadows. The subcommittee on Government Operations will come to order. Without objection, the chair is authorized to declare a recess at any time. The gentleman from Virginia is on his way. And so we're going to go ahead and try to get this started in the interest of your time and some pressing schedules that are here.    I'd like to start off by acknowledging just the incredible work of the staff, both in majority and minority, on their preparation for this particular hearing. It's an issue that, obviously, has great impact, but it's also one that was not on my bucket list. And so it's been interesting to be able to come up to speed on that and be aware of it.    And as you know, the Federal Long Term Care Insurance Program helps Federal employees prepare for the future healthcare needs by enrolling in long-term care insurance coverage. Federal employees can help reduce the financial burden of acquiring care as they grow older. And these burdens, obviously, can be very costly.    According to the Department of Health and Human Services, Americans turning 65 today will spend an average of $138,000 in long-term care services. By purchasing insurance now, the Federal employees can start paying for those services that they will need well into the future.    Alarmingly, the cost for this insurance continues to rise, and on July 18, the Office of Personnel Management, better known as OPM, after signing a new contract with John Hancock Insurance to administer the program, announced that the premium rates for most enrollees will drastically increase. Premiums have increased an average of $111, representing an 83 percent increase for nearly all of the 274,000 program enrollees.    For 102,000 of these enrollees, the rate increase was between 100 and 126 percent, translating to about $200 per month extra that people must pay to maintain the coverage. These most recent premium increases come after rates have already increased in 2009 by nearly 25 percent. And for many enrollees, including some 7,500 North Carolinians who are part of this program, this cost increase has been a financial difficulty. Unfortunately, these rates--the rate increases are not limited just to the Federal program.    Premiums have increased for nearly all long-term care insurance programs in the private sector as well, as my mother has very eloquently illuminated to me. And so a large reason behind these premium increases have to do with the nature of long-term care insurance. Insurance carriers must project a host of variables, including mortality rates, voluntary lapses, interest rates, morbidity rates and the like.    The values of these variables are constantly changing, and when projected several years into the future, it makes for the actuarial assumptions to be difficult, if not off in a number of cases. This necessitates premium increases at times in order for the insurance carriers to guarantee it can cover the expected benefits. Fortunately, insurance carriers have begun to acquire actual claim data in order to make more informed assumptions.    The hearing today will provide this committee the opportunity to delve into the variables that actually must be taken into account when setting these premium rates. This hearing will also allow the committee to look at factors affecting the lack of competition for Federal programs contracts. I'm concerned only that one carrier has bid on this contract, you know, both the second and third contracts. Encouraging healthy competition for Federal long-term care insurance programs contracts is an important aspect.    And so I look forward to hearing all of your testimony that we will receive today. And I recognize the gentleman from Virginia, my good friend, the ranking member, Mr. Connolly, for his opening statements.</t>
   </si>
   <si>
     <t>412272</t>
   </si>
   <si>
-    <t>Gerald E. Connolly</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Connolly. Thank you, Mr. Chairman. And thank you for the honorable way in which you have responded to my request to have this hearing. I really appreciate it, and you've kept your word in helping make sure we had a hearing on this very important topic. I also ask unanimous consent to enter a statement into the record from Anthony Reardon, the national president of the National Treasury Employees Union.</t>
   </si>
   <si>
@@ -94,51 +88,33 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Doughty</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Doughty. Thank you, Chairman Meadows, Ranking Member Connolly, and members of the subcommittee. I'm Mike Doughty, president and general manager of John Hancock Insurance. I oversee John Hancock Insurance products, including the Federal long-term care program.    I appreciate the opportunity to be here today to discuss the Federal Long Term Care Insurance Program and the contract that OPM awarded to John Hancock Life &amp; Health Insurance Company in April 2016. John Hancock has been involved with the program since its inception, and we remain committed to providing a strong and financially sound long-term care insurance product for Federal employees.    We recognize enrollees' legitimate concerns about the premium increase and the very real impact that it will have on people's lives. I appreciate the opportunity to address that increase, the reasons that it was necessary, and the steps that John Hancock has taken, in coordination with OPM, to provide enrollees with alternative options designed to mitigate the financial burden of the rate increase.    Congress created the Federal Long Term Care Insurance Program 16 years ago. Under the authorizing legislation, OPM conducts a competitive bidding process and awards a 7-year contract to a company to provide long-term care insurance. Regardless of the company that received the contract, the legislation has a unique feature that requires all funds, premiums, and investment returns, to be maintained separately in a fund called the Experience Fund. The Experience Fund is used exclusively for the program's assets and liabilities, and it transfers to a new carrier if OPM awards the contract to another provider.    Also, the Experience Fund receives no taxpayer money. All benefits are paid by the enrollees' premiums and the fund's investment returns. For these reasons, it is critically important that the premiums and the projected investment returns of the Experience Fund match the projected claims that enrollees will make many decades into the future. The entire industry has learned that making predictions about claims in the far-distant future is very challenging. But it was these projections that made the recent premium increase necessary.    In 2013, John Hancock observed trends in our non-Federal long-term care insurance policies that we determined could affect the Federal program. So we began an assessment of the Federal program. The review of the Federal program, which was completed in May 2014, showed that the Experience Fund would experience a deficit in the future. We found that new claims were increasing, particularly at older ages, claims were lasting longer than expected, and policies with higher daily benefits had higher than expected claims. We continued to evaluate the data.    Overall, the data revealed changes in mortality rates, people are living longer than previously expected; morbidity rates, more people are requiring long-term care and for longer periods of time; and investment changes. We have been in a sustained period of low interest rates.    On page 7 of my written testimony, there is a chart that captures the effects of these changes. The Experience Fund was projected to enter a deficit between 2035 and 2040 without a premium change. With the premium change, the Fund is projected to maintain funding sufficient to cover all enrollees' projected future claims.    Both John Hancock and OPM have a contractual obligation to adjust the premiums to make sure that the Experience Fund is able to meet the needs of enrollees for many decades into the future. And that's what we did. Importantly, these projections were reviewed by John Hancock's experts, by OPM, by John Hancock's independent actuarial firm, and by OPM's independent actuarial firm.    Next, recognizing the significance of the premium change, John Hancock worked closely with OPM on the implementation.    First, we created a program to communicate with enrollees about the premium increase, including a Web site, webinars, videos, FAQs and a professionally staffed call center.    Second, we created several alternative options which were designed to permit enrollees to adjust their coverage in light of the premium increase.    Finally, Mr. Chairman, I want to note that John Hancock agreed, in our new contract with OPM, to reduce the charges that we receive under the contract so that John Hancock will not have an increased profit from this rate increase.    Thank you for the opportunity to be here today. I look forward to discussing possible ways to strengthen the Federal Long Term Care Insurance Program, and I would welcome the opportunity to answer your questions.</t>
   </si>
   <si>
     <t>412213</t>
   </si>
   <si>
-    <t>Tim Walberg</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Walberg. [Presiding.] I thank the gentleman.    And I recognize Mr. O'Brien for your 5 minutes of testimony.</t>
   </si>
   <si>
-    <t>O'Brien</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. O'Brien. Thank you, Vice Chairman Walberg, Ranking Member Connolly, members of the subcommittee. Thank you for the opportunity to testify on the Federal Long Term Care Insurance Program.    OPM's mission is to recruit, retain, and honor a world-class Federal workforce to serve the American people. Part of that mission requires OPM to administer benefits, including the insurance product such as the Federal Long Term Care Insurance Program, for Federal employees, annuitants, and their families.    At the outset, let me make clear that I share the committee's frustration that premiums needed to be raised by such a significant amount. I and my colleagues at OPM are painfully aware of the financial burden and hard choices those premium increases placed on participants. However, we cannot avoid our primary responsibility to those participants to assure that when the time comes for someone to use the benefit that they have paid for, the funds will be there to deliver those services.    The Federal Long Term Care Insurance Program currently serves roughly 270,000 members whose premiums cover 100 percent of program's costs. All those premiums and the income those premiums generate is held in a single Experience Fund by John Hancock. While the fund is held by John Hancock, it belongs to the program and not the insurer. The Federal Long Term Care Insurance Program must assure that it can provide benefits decades into the future. Therefore, premiums must be based on long-term projection of both costs and revenues.    We are here today because at the end of the most recent contract cycle, the long-term insurance program had to respond to two hard facts. First, estimates of long-term care costs are increasing. And second, projection of long-term revenues to support those costs are decreasing. The confluence of higher anticipated costs and lower anticipated returns is not unique to the Federal Long Term Care Insurance Program. The entire long-term care insurance market faces this challenge.    Given these circumstances, increased premiums were necessary for the long-term viability of the Experience Fund. Without the increase, there would be an unacceptable risk that the Experience Fund would not have sufficient funds to pay for future claims.    In order to test the market and ensure that the reasonable efforts were made to attract the most competitive proposal, OPM made the decision to recompete the contract. John Hancock was the sole bidder, and OPM awarded the contract in April 2016. The premium rates proposed by John Hancock were reviewed by OPM's staff and its actuaries. In addition, OPM contracted with a separate independent actuary to evaluate the proposed premium rates and confirm the reasonableness of the assumptions used.    While the long-term viability of the Experience Fund made a substantial rate increase necessary, OPM was well aware of the economic hardship that the rate increase would cause participants. OPM's priority became to do all it could to ensure that enrollees had the information and opportunity to make informed choices about the costs and benefits of coverage in light of their own circumstances and needs.    Working with John Hancock and long-term care partners, we conducted an enrollee decision period from July the 18 to September 30. Outreach efforts included three direct mailings to enrollees with personalized information about the rate increase and options that they could use to adjust their benefit package to reduce their premium or keep the same premium; a Web site, also with personalized information, as well as a set of informational videos that explain benefit options; and finally, a fully staffed call center that assured individuals could get their questions answered by a real person.    In large part, the enrollees took advantage of this enrollee decision period. By the end of October, 172,000 enrollees, or just shy of two-thirds of the entire population, took some action in response to the premium changes. Of those who took action, most chose to keep their premium constant by reducing their benefit package.    While OPM remains committed to the FLTCIP program and the individuals it serves, we must also acknowledge that the long-term care insurance marketplace has changed substantially from 2002 when the program started. At that time, over 100 insurers offered long-term care products. Today, only a handful of insurers are actively selling long-term care insurance, and those insurers are primarily serving individuals by individual policies rather than group plans.    The challenge of matching premiums with long-term costs and revenues is real and ongoing. OPM staff is and will continue to closely monitor these trends and what it means for the long-term care insurance program and work to ensure that participants have an array of options to meet their needs.    Thank you for the opportunity to testify today, and I am happy to address any questions you may have.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Walberg. I thank the gentleman.    I recognize now Ms. Kastrup for your 5 minutes of testimony.</t>
   </si>
   <si>
-    <t>Kastrup</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Kastrup. Vice Chair Walberg, Ranking Member Connolly, and distinguished members of the subcommittee, thank you for the opportunity to testify on the issue of examining premium increases for long-term care insurance.    My name is Laurel Kastrup. I am an actuary specializing in long-term care insurance and financing. I am representing the American Academy of Actuaries. The Academy is a nonpartisan professional association representing the actuarial profession. Our mission is to serve the public and the U.S. actuarial profession. We do this by providing independent and objective actuarial information, analysis, and education to help in the formation of sound public policy.    I would like to start by emphasizing the importance of actuarial input when considering the design and evaluation of any potential long-term care policy approach. Actuaries are uniquely qualified, according to our professional standards. Qualified long-term care actuaries play a crucial role in the design of long-term care financing systems, from private long-term care insurance to public programs that provide long-term care benefits.    Actuaries have specialized expertise in managing the risk of adverse selection in insurance coverage. We have the ability to recognize and incorporate uncertainty into cost projections and premiums. We also have experience in evaluating the long-term solvency and sustainability of public and private insurance programs. The Academy recently developed an issue brief to highlight important underlying factors affecting long-term care insurance premium rate increases. Without long-term care insurance, many more people would exhaust their savings on care costs and then potentially rely on public programs such as Medicaid for their additional care needs.    Long-term care insurance requires a long projection period with assumptions extending over 50 years into the future, which creates a high level of uncertainty. The premium rates needed to ultimately be sufficient are also affected by changing circumstances, such as changing service providers, for example the growth of assisted living facilities; changes in incidents of Alzheimer's disease; the effects of mortality improvement in the population; and changes in family composition reducing availability of caregivers.    Determining premium increases is a relatively straightforward mathematical calculation. However, determining projection assumptions can be difficult. Actual historical experience that are sufficiently credible is needed to justify the future assumptions used in projections. With long-term care insurance, it can take a long time from the purchase of a policy until the first time a claim is submitted. This means that for a relatively young group of policy forms, there is often little claims experience to justify premium rate increases based on those forms alone.    Actuaries are required by actuarialstandards of practice to use alternative data sources, such as experience from the insurance companies older, similar policy forms or public data for identifying reasonable assumptions. Waiting until there is adequate claim information on each policy form can result in much larger, less affordable rate increases.    Insurers have routinely allowed insureds to reduce coverage by changing benefit options in order to help offset some or all of the rate increase. In an effort to enable policyholders faced with a rate increase to retain significant coverage, some companies have started making available an option for policyholders to avoid the rate increase by reducing their future automatic built-in inflation increases.    In closing, I want to mention that I understand that these premium rate increases can affect families. My own personal experience with long-term care insurance was that my grandpa had a policy. It had a small daily benefit. He gave up the inflation option to avoid rate increases. When he moved into an assisted living facility, his long-term care insurance policy, along with his income from Social Security was enough to make the cost affordable for him.    Predicting future policyholder and service provider types and availability can be difficult. This uncertain future makes it important that there is a way to take corrective action. The more conservative assumptions used in today's pricing of private long-term care insurance and the improved speed at taking corrective action should improve future projections resulting in fewer and smaller rate increases.    I, again, thank you for the opportunity to be here today with you and share the recent analysis by the American Academy of Actuaries on long-term care insurance. I would be happy to answer any questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Walberg. Thank you, Ms. Kastrup.    And now I recognize Mr. Thissen for your 5 minutes of testimony.</t>
   </si>
   <si>
-    <t>Thissen</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Thissen. Good afternoon, and thank you for the opportunity to express NARFE's view on premium increases for enrollees in the Federal Long Term Care Insurance Program, or     NARFE was proud to have played the lead role in supporting legislation creating FLTCIP, but we are extremely disappointed in the recent premium increases. FLTCIP premiums increased by an astounding 83 percent on average and by as much as 126 percent for nearly 40 percent of the enrollees. The average increase amounts to $111 per month. For many, the increase will be much larger.    These cost increases come as a rude awakening for enrollees. Following the announcement in July, they were presented with difficult and unfair choices: Pay substantially higher premiums, reduce coverage significantly, or abandon what for some had become more than a decade-long investment in protecting their future. This situation should not have occurred and signals the need for changes in the program.    We have heard from hundreds of NARFE members, and their messages have been personal and blunt. One NARFE member reported her premiums would rise from $275 to more than $600 per month. She is not alone in her experience. Another member told me, ``I am so much older now than when I entered the Federal plan, the cost to switch to another plan would be prohibitive. All my bills are fixed. The new payment will have to come from the grocery budget.'' Another said, ``We have already paid John Hancock $56,000 in premiums. We cannot quit now. We have too much invested. We are outraged by this bait and switch scheme,'' end quote.    For these enrollees, the reasons behind the increases come as little comfort, but are worth examining. The actuaries got it wrong. Long-term care costs are rising faster than expected and interest rates are expected to remain low. This may be the case, but the actuaries and the insurance company did not just get it wrong, they got it very wrong.    We hope this hearing, at the very least, provides the opportunity to further investigate why the assumptions were so far off and how lessons learned from those mistakes may be applied to assumptions about the future. But our efforts should not end there. We need to plan for long-term care--the need to plan for long-term care is as much a reality today as it was when the program was created 16 years ago.    Average long-term care costs are high, $3,800 per month for home health, $3,600 to stay in an assisted living facility, $7,700 for a private room in a nursing home. Sixty-nine percent of Americans will need some long-term care services for an average of 3 years. Without adequate insurance, too many will be bankrupt and forced to rely on Medicaid.    Federal employees and retirees want to do the responsible thing for themselves and their family. This program seeks to address the real need to plan for these future long-term care costs, but the lack of price stability and affordability make it increasingly difficult to do so. Legislative reforms are needed.    NARFE proposed a number of policy options in my written testimony. One of these proposals including providing enrollees an option to convert their plans to hybrid long-term care/life insurance policies, which would provide price stability. Another is to provide options to extend waiting periods or buy plans with deductibles which would improve affordability.    NARFE also supports broader reforms to the national long-term care policy. The crisis faced by FLTCIP is not unique. Individuals in private long-term care insurance plans are facing significant premium increases, and neither FLTCIP nor any other private long-term care insurance provider is continuing to offer unlimited catastrophic coverage.    Middle-class consumers seeking to insure against the worst-case scenarios are left with no options at all. Rather, Medicaid, a program intended to protect those in poverty, steps in as the only catastrophic option for consumers who must bankrupt themselves in order to qualify. Instead, NARFE supports a public-private partnership with a universal catastrophic insurance program that covers costs between the first 2 or 3 years of care and private insurance, such as FLTCIP, to cover the front end costs of care.    It is incumbent upon this subcommittee to support real reforms that provide Americans with affordable, reliable options. Enrollees should not bear the risk when insurance companies and actuaries make mistakes, and they should have options available to plan for their future needs. NARFE looks forward to working with Congress to pursue them. The status quo is unacceptable. Thank you so much.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Walberg. Thank you for your testimony.    And now I recognize Mr. Cohen for your 5 minutes of testimony.</t>
   </si>
   <si>
-    <t>Cohen</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cohen. Thank you, Vice Chair Walberg, Ranking Member Connolly, and members of the subcommittee. I'm Marc Cohen, the director of the Center for Long-Term Services and Supports at the McCormick Graduate School at UMass Boston, and a former president and current adviser to LifePlans, Inc., a long-term care research, consulting, and risk management company.    I appreciate the opportunity to testify in this topic. And in my testimony today, I will draw upon my 25 years of research focused on the private insurance market. I'd like to make three broad points today.    First, the rate increases that we're discussing should be viewed within the broader context of the long-term care insurance market and the challenges faced by all insurers in that market. These rate increases are occurring across almost all blocks of business as actuaries learn how the product is performing and make adjustments to their initial pricing assumptions.    Second, the current marketplace challenges do not diminish the need for an insurance-based solution for middle-class Americans, many of whom will face catastrophic costs and financial impoverishment in the absence of insurance solutions.    Finally, without public action, the private insurance market alone is unlikely to play a meaningful role in financing the Nation's long-term care needs. More specifically, an insurance-based public/private partnership stands the best chance of moving the needle on protecting middle-class Americans from significant costs that threaten their retirement.    Let me begin by making a few key observations to frame some of the subsequent discussion. Today, fewer than 10 percent have insurance protection, industrywide sales are declining significantly, and many companies have exited the market. Thus, the market is shrinking rather than growing, and this at a time when more Americans are facing significant long-term care costs.    There are a number of reasons why so many insurers have stopped offering policies. On the demand side, selling costs are high because consumers lack knowledge and understanding about long-term care risks and costs. They're confused about the role of public programs and there's general mistrust of insurers. On the supply side, insurers have faced a variety of unpredictable and often uncontrollable risks that are hard to spread. For example, given the current funding structure of almost all standalone policies, companies must correctly estimate yields on investment premiums 20 to 30 years into the future. An err of just a few percentage points in such an estimate can result in very large premium increases to assure adequate funding of future claims.    Second, unfolding negative claims experience has led to large rate increases as insurers waited many years before requesting some of these rate increases. Recent research shows that people would prefer smaller but more frequent adjustments rather than large infrequent ones. The problem is that these premium increases have made the product too costly for a growing number of middle-class consumers who only have personal savings and safety net programs like Medicaid to rely on should they require significant amounts of care.    Despite private sector challenges, variation in long-term care needs and expenses make risk pooling through insurance desirable. The underdevelopment and growing unaffordability of private insurance in the absence of any public insurance present a fundamental problem. People have no way to effectively plan for what is a perfectly insurable risk.    Since current strategies have not worked well in assuring broad consumer appeal and ensure enthusiasm, what can be done? Some concrete actions include simplifying and standardizing products to reduce selling costs, changing the structure of premiums payments so that there is some level of indexing to address both affordability and premium stability issues.    Also, without expanded Federal and/or State support designed to spur both demand and supply, however, the needle is unlikely to move enough to protect the majority of middle-class Americans. In addition to an educational campaign designed to reduce consumer confusion and increase knowledge and awareness, we need to think more broadly about shared public and private insurance models.    For example, given that the private insurance market is not willing to provide products any longer that cover the catastrophic tail risk, one might consider whether and how States or the Federal Government might do so. Such an approach could provide a basis--a base that the private insurance industry could supplement or wrap around, and it would likely encourage more insurers to get back into the market, broaden the risk pool, and lower the cost of insurance products.    In the interest of time, I will stop here, but would be happy to answer any questions that the committee might have. Thank you.</t>
   </si>
   <si>
@@ -148,9 +124,6 @@
     <t>412661</t>
   </si>
   <si>
-    <t>Glenn Grothman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Grothman. Interesting testimony. I'm going to ask Ms. Kastrup--is that right?--a few questions. I don't know if you're familiar with this product as opposed to other products, but whenever there's insurance, I don't care whether it's health insurance, car insurance, whatever, you always kind of wonder how much of that premium is going for claims and how much is going for overhead and commissions and that sort of thing.    Could you give me, the insurance industry in general, how much of, say, auto insurance, health insurance, and long-term insurance, how much goes for claims?</t>
   </si>
   <si>
@@ -391,9 +364,6 @@
     <t>400249</t>
   </si>
   <si>
-    <t>Stephen F. Lynch</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lynch. Thank you, Mr. Chairman, and thank you and the ranking member for holding this hearing.    I want to welcome our witnesses. Thank you for the important input you've had and the advice. I read through your papers; very, very helpful.    This is a thorny issue, and as someone who's an advocate on behalf of Federal employees, this was a shocker. I do understand that the real issues behind this, though, I've had some experience sitting as a trustee on pension funds where we assumed years ago that would always have, you know, our target rate was 7 or 8 percent interest on our funds and actuarially we could sort of stay within those guidelines and we could provide the fine benefit pensions to people and we could project that out. Now, we're in an interest rate period where it's half that.    And so, Mr. Doughty, is that the core issue for you here in terms of--you're trying to project over a very long period of time. I know you're experience rating is different. You know, the expectations on long-term morbidity and all of that, but the fact that you can't--if you're putting this money in the market and getting return on your investment and it's so low, even over a long period of time, you cannot pay the benefits. Is that the crux of the problem?</t>
   </si>
   <si>
@@ -457,15 +427,9 @@
     <t>412226</t>
   </si>
   <si>
-    <t>Jim Jordan</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Jordan. [Presiding.] I thank the gentleman for yielding.    And I now recognize the gentlelady from Virginia for her 5 minutes.</t>
   </si>
   <si>
-    <t>Comstock</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Comstock. Thank you, Mr. Chairman. And I thank the committee for holding this hearing.    You know, when my constituents, seeing as I'm in Virginia and have many Federal employees also, were notified by OPM on July of these large premium increases, they were understandably concerned, and we certainly did hear a lot from them. And that's why I had joined folks in requesting the hearing. So I appreciate you all being here and taking a look at this issue.    Walt Frances, a health economist and an expert on these programs, is quoted in the Washington Post as saying, quote, ``This never should have happened. The long-term care estimate should have been actuarially sound and accurate, taking into account far more carefully both the possibility of low interest rates, the low rate of return on premiums invested in bonds, and thirdly, the average selection by persons most likely to need long-term care.''    Could Mr. Doughty and Mr. O'Brien address the industry assumptions that were here as well as just the general statement? And maybe some others would like to join also, but why don't we start.</t>
   </si>
   <si>
@@ -502,9 +466,6 @@
     <t xml:space="preserve">    Mr. Jordan. I thank the gentlelady for yielding back.    We now recognize the gentleman from Virginia, Mr. Beyer.</t>
   </si>
   <si>
-    <t>Beyer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Beyer. Thank you, Mr. Chairman. Thanks for allowing me to sit in on the hearing today.    You know, this is something that affects many of my constituents. I think I have more Federal employees than Federal retirees than any other Member of Congress. And, believe me, we have heard from them. The phone rang off the hook.</t>
   </si>
   <si>
@@ -599,9 +560,6 @@
   </si>
   <si>
     <t>412619</t>
-  </si>
-  <si>
-    <t>Ken Buck</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Buck. [Presiding.] The gentleman yields back.    Does the gentleman from Wisconsin have any questions?</t>
@@ -1114,11 +1072,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1138,13 +1094,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1166,11 +1120,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1190,13 +1142,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1218,11 +1168,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1242,13 +1190,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1270,11 +1216,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1294,13 +1238,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1322,11 +1264,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1348,11 +1288,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1372,13 +1310,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" t="s">
-        <v>26</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1398,13 +1334,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" t="s">
-        <v>29</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1424,13 +1358,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" t="s">
-        <v>31</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1450,13 +1382,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
         <v>28</v>
-      </c>
-      <c r="G15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H15" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1476,13 +1406,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" t="s">
-        <v>34</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1502,13 +1430,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" t="s">
-        <v>29</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1528,13 +1454,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" t="s">
-        <v>37</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1554,13 +1478,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" t="s">
-        <v>29</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1580,13 +1502,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" t="s">
-        <v>40</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1606,13 +1526,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" t="s">
-        <v>29</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1632,13 +1550,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>43</v>
-      </c>
-      <c r="G22" t="s">
-        <v>44</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1658,13 +1574,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>25</v>
-      </c>
-      <c r="G23" t="s">
-        <v>34</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1684,13 +1598,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>43</v>
-      </c>
-      <c r="G24" t="s">
-        <v>44</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1710,13 +1622,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>25</v>
-      </c>
-      <c r="G25" t="s">
-        <v>34</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1736,13 +1646,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>43</v>
-      </c>
-      <c r="G26" t="s">
-        <v>44</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1762,13 +1670,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>25</v>
-      </c>
-      <c r="G27" t="s">
-        <v>34</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1788,13 +1694,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>43</v>
-      </c>
-      <c r="G28" t="s">
-        <v>44</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1814,13 +1718,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>25</v>
-      </c>
-      <c r="G29" t="s">
-        <v>34</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1840,13 +1742,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>43</v>
-      </c>
-      <c r="G30" t="s">
+        <v>35</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
         <v>44</v>
-      </c>
-      <c r="H30" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1866,13 +1766,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>25</v>
-      </c>
-      <c r="G31" t="s">
-        <v>34</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1892,13 +1790,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>43</v>
-      </c>
-      <c r="G32" t="s">
-        <v>44</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1918,13 +1814,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>25</v>
-      </c>
-      <c r="G33" t="s">
-        <v>34</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1944,13 +1838,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>43</v>
-      </c>
-      <c r="G34" t="s">
-        <v>44</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1970,13 +1862,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>25</v>
-      </c>
-      <c r="G35" t="s">
-        <v>40</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1996,13 +1886,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>43</v>
-      </c>
-      <c r="G36" t="s">
-        <v>44</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2022,13 +1910,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>25</v>
-      </c>
-      <c r="G37" t="s">
-        <v>40</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2048,13 +1934,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>43</v>
-      </c>
-      <c r="G38" t="s">
-        <v>44</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2074,13 +1958,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>25</v>
-      </c>
-      <c r="G39" t="s">
-        <v>40</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2100,13 +1982,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>43</v>
-      </c>
-      <c r="G40" t="s">
-        <v>44</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2126,13 +2006,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>25</v>
-      </c>
-      <c r="G41" t="s">
-        <v>40</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2152,13 +2030,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>43</v>
-      </c>
-      <c r="G42" t="s">
-        <v>44</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2178,13 +2054,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>25</v>
-      </c>
-      <c r="G43" t="s">
-        <v>40</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2204,13 +2078,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>43</v>
-      </c>
-      <c r="G44" t="s">
-        <v>44</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2230,13 +2102,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>25</v>
-      </c>
-      <c r="G45" t="s">
-        <v>40</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2256,13 +2126,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>43</v>
-      </c>
-      <c r="G46" t="s">
-        <v>44</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2282,13 +2150,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>25</v>
-      </c>
-      <c r="G47" t="s">
-        <v>26</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2308,13 +2174,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>43</v>
-      </c>
-      <c r="G48" t="s">
-        <v>44</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2334,13 +2198,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>25</v>
-      </c>
-      <c r="G49" t="s">
-        <v>26</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2360,13 +2222,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>43</v>
-      </c>
-      <c r="G50" t="s">
-        <v>44</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2386,13 +2246,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>28</v>
-      </c>
-      <c r="G51" t="s">
-        <v>29</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2412,13 +2270,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>43</v>
-      </c>
-      <c r="G52" t="s">
-        <v>44</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2438,13 +2294,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>28</v>
-      </c>
-      <c r="G53" t="s">
-        <v>29</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2464,13 +2318,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2490,13 +2342,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>25</v>
-      </c>
-      <c r="G55" t="s">
-        <v>26</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2516,13 +2366,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2542,13 +2390,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>25</v>
-      </c>
-      <c r="G57" t="s">
-        <v>26</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2568,13 +2414,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>14</v>
-      </c>
-      <c r="G58" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2594,13 +2438,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>25</v>
-      </c>
-      <c r="G59" t="s">
-        <v>26</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2620,13 +2462,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>14</v>
-      </c>
-      <c r="G60" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2646,13 +2486,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>25</v>
-      </c>
-      <c r="G61" t="s">
-        <v>26</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2672,13 +2510,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2698,13 +2534,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>25</v>
-      </c>
-      <c r="G63" t="s">
-        <v>26</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2724,13 +2558,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>14</v>
-      </c>
-      <c r="G64" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2750,13 +2582,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>25</v>
-      </c>
-      <c r="G65" t="s">
-        <v>26</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2776,13 +2606,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>14</v>
-      </c>
-      <c r="G66" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2802,13 +2630,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>25</v>
-      </c>
-      <c r="G67" t="s">
-        <v>26</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2828,13 +2654,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>14</v>
-      </c>
-      <c r="G68" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2854,13 +2678,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>25</v>
-      </c>
-      <c r="G69" t="s">
-        <v>40</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2880,13 +2702,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>14</v>
-      </c>
-      <c r="G70" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2906,13 +2726,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>25</v>
-      </c>
-      <c r="G71" t="s">
-        <v>40</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2932,13 +2750,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>14</v>
-      </c>
-      <c r="G72" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2958,13 +2774,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>25</v>
-      </c>
-      <c r="G73" t="s">
-        <v>40</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2984,13 +2798,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>14</v>
-      </c>
-      <c r="G74" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3010,13 +2822,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>25</v>
-      </c>
-      <c r="G75" t="s">
-        <v>40</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3036,13 +2846,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>14</v>
-      </c>
-      <c r="G76" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3062,13 +2870,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>25</v>
-      </c>
-      <c r="G77" t="s">
-        <v>40</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3088,13 +2894,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>14</v>
-      </c>
-      <c r="G78" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3114,13 +2918,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>25</v>
-      </c>
-      <c r="G79" t="s">
-        <v>40</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3140,13 +2942,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>14</v>
-      </c>
-      <c r="G80" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3166,13 +2966,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>25</v>
-      </c>
-      <c r="G81" t="s">
-        <v>31</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3192,13 +2990,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>14</v>
-      </c>
-      <c r="G82" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3218,13 +3014,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>28</v>
-      </c>
-      <c r="G83" t="s">
-        <v>29</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3244,13 +3038,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>25</v>
-      </c>
-      <c r="G84" t="s">
-        <v>34</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3270,13 +3062,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>28</v>
-      </c>
-      <c r="G85" t="s">
-        <v>29</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3296,13 +3086,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>25</v>
-      </c>
-      <c r="G86" t="s">
-        <v>34</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3322,13 +3110,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>28</v>
-      </c>
-      <c r="G87" t="s">
-        <v>29</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3348,13 +3134,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>25</v>
-      </c>
-      <c r="G88" t="s">
-        <v>34</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3374,13 +3158,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>28</v>
-      </c>
-      <c r="G89" t="s">
-        <v>29</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3400,13 +3182,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>25</v>
-      </c>
-      <c r="G90" t="s">
-        <v>26</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3426,13 +3206,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>28</v>
-      </c>
-      <c r="G91" t="s">
-        <v>29</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3452,13 +3230,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>25</v>
-      </c>
-      <c r="G92" t="s">
-        <v>26</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3478,13 +3254,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>28</v>
-      </c>
-      <c r="G93" t="s">
-        <v>29</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3504,13 +3278,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>25</v>
-      </c>
-      <c r="G94" t="s">
-        <v>26</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3530,13 +3302,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>28</v>
-      </c>
-      <c r="G95" t="s">
-        <v>29</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3556,13 +3326,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>25</v>
-      </c>
-      <c r="G96" t="s">
-        <v>26</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3582,13 +3350,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>28</v>
-      </c>
-      <c r="G97" t="s">
-        <v>29</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3608,13 +3374,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>25</v>
-      </c>
-      <c r="G98" t="s">
-        <v>26</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3634,13 +3398,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>28</v>
-      </c>
-      <c r="G99" t="s">
-        <v>29</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3660,13 +3422,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>25</v>
-      </c>
-      <c r="G100" t="s">
-        <v>26</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3686,13 +3446,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>28</v>
-      </c>
-      <c r="G101" t="s">
-        <v>29</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3712,13 +3470,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>124</v>
-      </c>
-      <c r="G102" t="s">
-        <v>125</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3738,13 +3494,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>25</v>
-      </c>
-      <c r="G103" t="s">
-        <v>26</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3764,13 +3518,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>124</v>
-      </c>
-      <c r="G104" t="s">
-        <v>125</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3790,13 +3542,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>25</v>
-      </c>
-      <c r="G105" t="s">
-        <v>26</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3816,13 +3566,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>124</v>
-      </c>
-      <c r="G106" t="s">
-        <v>125</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3842,13 +3590,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>25</v>
-      </c>
-      <c r="G107" t="s">
-        <v>26</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3868,13 +3614,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>124</v>
-      </c>
-      <c r="G108" t="s">
-        <v>125</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3894,13 +3638,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>25</v>
-      </c>
-      <c r="G109" t="s">
-        <v>26</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3920,13 +3662,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
+        <v>115</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
         <v>124</v>
-      </c>
-      <c r="G110" t="s">
-        <v>125</v>
-      </c>
-      <c r="H110" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3946,13 +3686,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>25</v>
-      </c>
-      <c r="G111" t="s">
-        <v>26</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3972,13 +3710,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>124</v>
-      </c>
-      <c r="G112" t="s">
-        <v>125</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3998,13 +3734,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>25</v>
-      </c>
-      <c r="G113" t="s">
-        <v>26</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4024,13 +3758,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>124</v>
-      </c>
-      <c r="G114" t="s">
-        <v>125</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4050,13 +3782,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>25</v>
-      </c>
-      <c r="G115" t="s">
-        <v>40</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4076,13 +3806,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
+        <v>115</v>
+      </c>
+      <c r="G116" t="s"/>
+      <c r="H116" t="s">
         <v>124</v>
-      </c>
-      <c r="G116" t="s">
-        <v>125</v>
-      </c>
-      <c r="H116" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4102,13 +3830,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>25</v>
-      </c>
-      <c r="G117" t="s">
-        <v>40</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4128,13 +3854,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>124</v>
-      </c>
-      <c r="G118" t="s">
-        <v>125</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4154,13 +3878,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>25</v>
-      </c>
-      <c r="G119" t="s">
-        <v>40</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4180,13 +3902,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>124</v>
-      </c>
-      <c r="G120" t="s">
-        <v>125</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4206,13 +3926,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>25</v>
-      </c>
-      <c r="G121" t="s">
-        <v>40</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4232,13 +3950,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>124</v>
-      </c>
-      <c r="G122" t="s">
-        <v>125</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4258,13 +3974,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>124</v>
-      </c>
-      <c r="G123" t="s">
-        <v>125</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4284,13 +3998,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>146</v>
-      </c>
-      <c r="G124" t="s">
-        <v>147</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4310,13 +4022,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>25</v>
-      </c>
-      <c r="G125" t="s">
-        <v>149</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4336,13 +4046,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>25</v>
-      </c>
-      <c r="G126" t="s">
-        <v>26</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4362,13 +4070,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>25</v>
-      </c>
-      <c r="G127" t="s">
-        <v>149</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4388,13 +4094,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>25</v>
-      </c>
-      <c r="G128" t="s">
-        <v>31</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4414,13 +4118,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>14</v>
-      </c>
-      <c r="G129" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4440,13 +4142,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>25</v>
-      </c>
-      <c r="G130" t="s">
-        <v>31</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4466,13 +4166,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>25</v>
-      </c>
-      <c r="G131" t="s">
-        <v>34</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4492,13 +4190,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>25</v>
-      </c>
-      <c r="G132" t="s">
-        <v>40</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4518,13 +4214,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>25</v>
-      </c>
-      <c r="G133" t="s">
-        <v>149</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4544,13 +4238,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>25</v>
-      </c>
-      <c r="G134" t="s">
-        <v>37</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4570,13 +4262,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>25</v>
-      </c>
-      <c r="G135" t="s">
-        <v>149</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4596,13 +4286,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>146</v>
-      </c>
-      <c r="G136" t="s">
-        <v>147</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4622,13 +4310,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>25</v>
-      </c>
-      <c r="G137" t="s">
-        <v>162</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4648,13 +4334,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>14</v>
-      </c>
-      <c r="G138" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4674,13 +4358,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>25</v>
-      </c>
-      <c r="G139" t="s">
-        <v>162</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4700,13 +4382,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>25</v>
-      </c>
-      <c r="G140" t="s">
-        <v>31</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4726,13 +4406,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>25</v>
-      </c>
-      <c r="G141" t="s">
-        <v>162</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4752,13 +4430,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>25</v>
-      </c>
-      <c r="G142" t="s">
-        <v>31</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4778,13 +4454,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>25</v>
-      </c>
-      <c r="G143" t="s">
-        <v>162</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4804,13 +4478,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>25</v>
-      </c>
-      <c r="G144" t="s">
-        <v>37</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4830,13 +4502,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>14</v>
-      </c>
-      <c r="G145" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4856,13 +4526,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>25</v>
-      </c>
-      <c r="G146" t="s">
-        <v>37</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4882,13 +4550,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>25</v>
-      </c>
-      <c r="G147" t="s">
-        <v>162</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4908,13 +4574,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>146</v>
-      </c>
-      <c r="G148" t="s">
-        <v>147</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4934,13 +4598,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>25</v>
-      </c>
-      <c r="G149" t="s">
-        <v>149</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4960,13 +4622,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>25</v>
-      </c>
-      <c r="G150" t="s">
-        <v>31</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4986,13 +4646,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>25</v>
-      </c>
-      <c r="G151" t="s">
-        <v>149</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5012,13 +4670,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>25</v>
-      </c>
-      <c r="G152" t="s">
-        <v>31</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5038,13 +4694,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>25</v>
-      </c>
-      <c r="G153" t="s">
-        <v>149</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5064,13 +4718,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>25</v>
-      </c>
-      <c r="G154" t="s">
-        <v>31</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5090,13 +4742,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>25</v>
-      </c>
-      <c r="G155" t="s">
-        <v>149</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5116,13 +4766,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>146</v>
-      </c>
-      <c r="G156" t="s">
-        <v>147</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5142,13 +4790,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>14</v>
-      </c>
-      <c r="G157" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5168,13 +4814,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>25</v>
-      </c>
-      <c r="G158" t="s">
-        <v>31</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5194,13 +4838,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>14</v>
-      </c>
-      <c r="G159" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5220,13 +4862,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>25</v>
-      </c>
-      <c r="G160" t="s">
-        <v>31</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5246,13 +4886,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>14</v>
-      </c>
-      <c r="G161" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5272,13 +4910,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>25</v>
-      </c>
-      <c r="G162" t="s">
-        <v>31</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5298,13 +4934,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>14</v>
-      </c>
-      <c r="G163" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5324,13 +4958,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>25</v>
-      </c>
-      <c r="G164" t="s">
-        <v>31</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5350,13 +4982,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>14</v>
-      </c>
-      <c r="G165" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5376,13 +5006,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>25</v>
-      </c>
-      <c r="G166" t="s">
-        <v>31</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5402,13 +5030,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>14</v>
-      </c>
-      <c r="G167" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5428,13 +5054,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>194</v>
-      </c>
-      <c r="G168" t="s">
-        <v>195</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5454,13 +5078,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>43</v>
-      </c>
-      <c r="G169" t="s">
-        <v>44</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5480,13 +5102,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>25</v>
-      </c>
-      <c r="G170" t="s">
-        <v>31</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5506,13 +5126,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>43</v>
-      </c>
-      <c r="G171" t="s">
-        <v>44</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5532,13 +5150,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>25</v>
-      </c>
-      <c r="G172" t="s">
-        <v>31</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5558,13 +5174,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>43</v>
-      </c>
-      <c r="G173" t="s">
-        <v>44</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5584,13 +5198,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>25</v>
-      </c>
-      <c r="G174" t="s">
-        <v>26</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5610,13 +5222,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>43</v>
-      </c>
-      <c r="G175" t="s">
-        <v>44</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5636,13 +5246,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>25</v>
-      </c>
-      <c r="G176" t="s">
-        <v>26</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5662,13 +5270,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>43</v>
-      </c>
-      <c r="G177" t="s">
-        <v>44</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5688,13 +5294,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>25</v>
-      </c>
-      <c r="G178" t="s">
-        <v>26</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5714,13 +5318,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>43</v>
-      </c>
-      <c r="G179" t="s">
-        <v>44</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5740,13 +5342,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>25</v>
-      </c>
-      <c r="G180" t="s">
-        <v>26</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5766,13 +5366,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>43</v>
-      </c>
-      <c r="G181" t="s">
-        <v>44</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5792,13 +5390,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>25</v>
-      </c>
-      <c r="G182" t="s">
-        <v>26</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5818,13 +5414,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>43</v>
-      </c>
-      <c r="G183" t="s">
-        <v>44</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5844,13 +5438,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>25</v>
-      </c>
-      <c r="G184" t="s">
-        <v>26</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5870,13 +5462,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>43</v>
-      </c>
-      <c r="G185" t="s">
-        <v>44</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5896,13 +5486,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>25</v>
-      </c>
-      <c r="G186" t="s">
-        <v>26</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5922,13 +5510,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>43</v>
-      </c>
-      <c r="G187" t="s">
-        <v>44</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5948,13 +5534,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>25</v>
-      </c>
-      <c r="G188" t="s">
-        <v>26</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5974,13 +5558,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>43</v>
-      </c>
-      <c r="G189" t="s">
-        <v>44</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6000,13 +5582,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>25</v>
-      </c>
-      <c r="G190" t="s">
-        <v>40</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6026,13 +5606,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>43</v>
-      </c>
-      <c r="G191" t="s">
-        <v>44</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6052,13 +5630,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>25</v>
-      </c>
-      <c r="G192" t="s">
-        <v>40</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6078,13 +5654,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>43</v>
-      </c>
-      <c r="G193" t="s">
-        <v>44</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6104,13 +5678,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>25</v>
-      </c>
-      <c r="G194" t="s">
-        <v>40</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6130,13 +5702,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>43</v>
-      </c>
-      <c r="G195" t="s">
-        <v>44</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6156,13 +5726,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>194</v>
-      </c>
-      <c r="G196" t="s">
-        <v>195</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6182,13 +5750,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>25</v>
-      </c>
-      <c r="G197" t="s">
-        <v>162</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6208,13 +5774,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>25</v>
-      </c>
-      <c r="G198" t="s">
-        <v>26</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6234,13 +5798,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>25</v>
-      </c>
-      <c r="G199" t="s">
-        <v>162</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6260,13 +5822,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>25</v>
-      </c>
-      <c r="G200" t="s">
-        <v>31</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6286,13 +5846,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>25</v>
-      </c>
-      <c r="G201" t="s">
-        <v>162</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6312,13 +5870,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>25</v>
-      </c>
-      <c r="G202" t="s">
-        <v>31</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6338,13 +5894,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>25</v>
-      </c>
-      <c r="G203" t="s">
-        <v>162</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6364,13 +5918,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>25</v>
-      </c>
-      <c r="G204" t="s">
-        <v>31</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6390,13 +5942,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>25</v>
-      </c>
-      <c r="G205" t="s">
-        <v>162</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6416,13 +5966,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>194</v>
-      </c>
-      <c r="G206" t="s">
-        <v>195</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg25005.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg25005.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="242">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>412552</t>
   </si>
   <si>
+    <t>Meadows</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Meadows. The subcommittee on Government Operations will come to order. Without objection, the chair is authorized to declare a recess at any time. The gentleman from Virginia is on his way. And so we're going to go ahead and try to get this started in the interest of your time and some pressing schedules that are here.    I'd like to start off by acknowledging just the incredible work of the staff, both in majority and minority, on their preparation for this particular hearing. It's an issue that, obviously, has great impact, but it's also one that was not on my bucket list. And so it's been interesting to be able to come up to speed on that and be aware of it.    And as you know, the Federal Long Term Care Insurance Program helps Federal employees prepare for the future healthcare needs by enrolling in long-term care insurance coverage. Federal employees can help reduce the financial burden of acquiring care as they grow older. And these burdens, obviously, can be very costly.    According to the Department of Health and Human Services, Americans turning 65 today will spend an average of $138,000 in long-term care services. By purchasing insurance now, the Federal employees can start paying for those services that they will need well into the future.    Alarmingly, the cost for this insurance continues to rise, and on July 18, the Office of Personnel Management, better known as OPM, after signing a new contract with John Hancock Insurance to administer the program, announced that the premium rates for most enrollees will drastically increase. Premiums have increased an average of $111, representing an 83 percent increase for nearly all of the 274,000 program enrollees.    For 102,000 of these enrollees, the rate increase was between 100 and 126 percent, translating to about $200 per month extra that people must pay to maintain the coverage. These most recent premium increases come after rates have already increased in 2009 by nearly 25 percent. And for many enrollees, including some 7,500 North Carolinians who are part of this program, this cost increase has been a financial difficulty. Unfortunately, these rates--the rate increases are not limited just to the Federal program.    Premiums have increased for nearly all long-term care insurance programs in the private sector as well, as my mother has very eloquently illuminated to me. And so a large reason behind these premium increases have to do with the nature of long-term care insurance. Insurance carriers must project a host of variables, including mortality rates, voluntary lapses, interest rates, morbidity rates and the like.    The values of these variables are constantly changing, and when projected several years into the future, it makes for the actuarial assumptions to be difficult, if not off in a number of cases. This necessitates premium increases at times in order for the insurance carriers to guarantee it can cover the expected benefits. Fortunately, insurance carriers have begun to acquire actual claim data in order to make more informed assumptions.    The hearing today will provide this committee the opportunity to delve into the variables that actually must be taken into account when setting these premium rates. This hearing will also allow the committee to look at factors affecting the lack of competition for Federal programs contracts. I'm concerned only that one carrier has bid on this contract, you know, both the second and third contracts. Encouraging healthy competition for Federal long-term care insurance programs contracts is an important aspect.    And so I look forward to hearing all of your testimony that we will receive today. And I recognize the gentleman from Virginia, my good friend, the ranking member, Mr. Connolly, for his opening statements.</t>
   </si>
   <si>
     <t>412272</t>
   </si>
   <si>
+    <t>Connolly</t>
+  </si>
+  <si>
+    <t>Gerald</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Connolly. Thank you, Mr. Chairman. And thank you for the honorable way in which you have responded to my request to have this hearing. I really appreciate it, and you've kept your word in helping make sure we had a hearing on this very important topic. I also ask unanimous consent to enter a statement into the record from Anthony Reardon, the national president of the National Treasury Employees Union.</t>
   </si>
   <si>
@@ -88,33 +103,54 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Doughty</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Doughty. Thank you, Chairman Meadows, Ranking Member Connolly, and members of the subcommittee. I'm Mike Doughty, president and general manager of John Hancock Insurance. I oversee John Hancock Insurance products, including the Federal long-term care program.    I appreciate the opportunity to be here today to discuss the Federal Long Term Care Insurance Program and the contract that OPM awarded to John Hancock Life &amp; Health Insurance Company in April 2016. John Hancock has been involved with the program since its inception, and we remain committed to providing a strong and financially sound long-term care insurance product for Federal employees.    We recognize enrollees' legitimate concerns about the premium increase and the very real impact that it will have on people's lives. I appreciate the opportunity to address that increase, the reasons that it was necessary, and the steps that John Hancock has taken, in coordination with OPM, to provide enrollees with alternative options designed to mitigate the financial burden of the rate increase.    Congress created the Federal Long Term Care Insurance Program 16 years ago. Under the authorizing legislation, OPM conducts a competitive bidding process and awards a 7-year contract to a company to provide long-term care insurance. Regardless of the company that received the contract, the legislation has a unique feature that requires all funds, premiums, and investment returns, to be maintained separately in a fund called the Experience Fund. The Experience Fund is used exclusively for the program's assets and liabilities, and it transfers to a new carrier if OPM awards the contract to another provider.    Also, the Experience Fund receives no taxpayer money. All benefits are paid by the enrollees' premiums and the fund's investment returns. For these reasons, it is critically important that the premiums and the projected investment returns of the Experience Fund match the projected claims that enrollees will make many decades into the future. The entire industry has learned that making predictions about claims in the far-distant future is very challenging. But it was these projections that made the recent premium increase necessary.    In 2013, John Hancock observed trends in our non-Federal long-term care insurance policies that we determined could affect the Federal program. So we began an assessment of the Federal program. The review of the Federal program, which was completed in May 2014, showed that the Experience Fund would experience a deficit in the future. We found that new claims were increasing, particularly at older ages, claims were lasting longer than expected, and policies with higher daily benefits had higher than expected claims. We continued to evaluate the data.    Overall, the data revealed changes in mortality rates, people are living longer than previously expected; morbidity rates, more people are requiring long-term care and for longer periods of time; and investment changes. We have been in a sustained period of low interest rates.    On page 7 of my written testimony, there is a chart that captures the effects of these changes. The Experience Fund was projected to enter a deficit between 2035 and 2040 without a premium change. With the premium change, the Fund is projected to maintain funding sufficient to cover all enrollees' projected future claims.    Both John Hancock and OPM have a contractual obligation to adjust the premiums to make sure that the Experience Fund is able to meet the needs of enrollees for many decades into the future. And that's what we did. Importantly, these projections were reviewed by John Hancock's experts, by OPM, by John Hancock's independent actuarial firm, and by OPM's independent actuarial firm.    Next, recognizing the significance of the premium change, John Hancock worked closely with OPM on the implementation.    First, we created a program to communicate with enrollees about the premium increase, including a Web site, webinars, videos, FAQs and a professionally staffed call center.    Second, we created several alternative options which were designed to permit enrollees to adjust their coverage in light of the premium increase.    Finally, Mr. Chairman, I want to note that John Hancock agreed, in our new contract with OPM, to reduce the charges that we receive under the contract so that John Hancock will not have an increased profit from this rate increase.    Thank you for the opportunity to be here today. I look forward to discussing possible ways to strengthen the Federal Long Term Care Insurance Program, and I would welcome the opportunity to answer your questions.</t>
   </si>
   <si>
     <t>412213</t>
   </si>
   <si>
+    <t>Walberg</t>
+  </si>
+  <si>
+    <t>Tim</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Walberg. [Presiding.] I thank the gentleman.    And I recognize Mr. O'Brien for your 5 minutes of testimony.</t>
   </si>
   <si>
+    <t>O'Brien</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. O'Brien. Thank you, Vice Chairman Walberg, Ranking Member Connolly, members of the subcommittee. Thank you for the opportunity to testify on the Federal Long Term Care Insurance Program.    OPM's mission is to recruit, retain, and honor a world-class Federal workforce to serve the American people. Part of that mission requires OPM to administer benefits, including the insurance product such as the Federal Long Term Care Insurance Program, for Federal employees, annuitants, and their families.    At the outset, let me make clear that I share the committee's frustration that premiums needed to be raised by such a significant amount. I and my colleagues at OPM are painfully aware of the financial burden and hard choices those premium increases placed on participants. However, we cannot avoid our primary responsibility to those participants to assure that when the time comes for someone to use the benefit that they have paid for, the funds will be there to deliver those services.    The Federal Long Term Care Insurance Program currently serves roughly 270,000 members whose premiums cover 100 percent of program's costs. All those premiums and the income those premiums generate is held in a single Experience Fund by John Hancock. While the fund is held by John Hancock, it belongs to the program and not the insurer. The Federal Long Term Care Insurance Program must assure that it can provide benefits decades into the future. Therefore, premiums must be based on long-term projection of both costs and revenues.    We are here today because at the end of the most recent contract cycle, the long-term insurance program had to respond to two hard facts. First, estimates of long-term care costs are increasing. And second, projection of long-term revenues to support those costs are decreasing. The confluence of higher anticipated costs and lower anticipated returns is not unique to the Federal Long Term Care Insurance Program. The entire long-term care insurance market faces this challenge.    Given these circumstances, increased premiums were necessary for the long-term viability of the Experience Fund. Without the increase, there would be an unacceptable risk that the Experience Fund would not have sufficient funds to pay for future claims.    In order to test the market and ensure that the reasonable efforts were made to attract the most competitive proposal, OPM made the decision to recompete the contract. John Hancock was the sole bidder, and OPM awarded the contract in April 2016. The premium rates proposed by John Hancock were reviewed by OPM's staff and its actuaries. In addition, OPM contracted with a separate independent actuary to evaluate the proposed premium rates and confirm the reasonableness of the assumptions used.    While the long-term viability of the Experience Fund made a substantial rate increase necessary, OPM was well aware of the economic hardship that the rate increase would cause participants. OPM's priority became to do all it could to ensure that enrollees had the information and opportunity to make informed choices about the costs and benefits of coverage in light of their own circumstances and needs.    Working with John Hancock and long-term care partners, we conducted an enrollee decision period from July the 18 to September 30. Outreach efforts included three direct mailings to enrollees with personalized information about the rate increase and options that they could use to adjust their benefit package to reduce their premium or keep the same premium; a Web site, also with personalized information, as well as a set of informational videos that explain benefit options; and finally, a fully staffed call center that assured individuals could get their questions answered by a real person.    In large part, the enrollees took advantage of this enrollee decision period. By the end of October, 172,000 enrollees, or just shy of two-thirds of the entire population, took some action in response to the premium changes. Of those who took action, most chose to keep their premium constant by reducing their benefit package.    While OPM remains committed to the FLTCIP program and the individuals it serves, we must also acknowledge that the long-term care insurance marketplace has changed substantially from 2002 when the program started. At that time, over 100 insurers offered long-term care products. Today, only a handful of insurers are actively selling long-term care insurance, and those insurers are primarily serving individuals by individual policies rather than group plans.    The challenge of matching premiums with long-term costs and revenues is real and ongoing. OPM staff is and will continue to closely monitor these trends and what it means for the long-term care insurance program and work to ensure that participants have an array of options to meet their needs.    Thank you for the opportunity to testify today, and I am happy to address any questions you may have.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Walberg. I thank the gentleman.    I recognize now Ms. Kastrup for your 5 minutes of testimony.</t>
   </si>
   <si>
+    <t>Kastrup</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Kastrup. Vice Chair Walberg, Ranking Member Connolly, and distinguished members of the subcommittee, thank you for the opportunity to testify on the issue of examining premium increases for long-term care insurance.    My name is Laurel Kastrup. I am an actuary specializing in long-term care insurance and financing. I am representing the American Academy of Actuaries. The Academy is a nonpartisan professional association representing the actuarial profession. Our mission is to serve the public and the U.S. actuarial profession. We do this by providing independent and objective actuarial information, analysis, and education to help in the formation of sound public policy.    I would like to start by emphasizing the importance of actuarial input when considering the design and evaluation of any potential long-term care policy approach. Actuaries are uniquely qualified, according to our professional standards. Qualified long-term care actuaries play a crucial role in the design of long-term care financing systems, from private long-term care insurance to public programs that provide long-term care benefits.    Actuaries have specialized expertise in managing the risk of adverse selection in insurance coverage. We have the ability to recognize and incorporate uncertainty into cost projections and premiums. We also have experience in evaluating the long-term solvency and sustainability of public and private insurance programs. The Academy recently developed an issue brief to highlight important underlying factors affecting long-term care insurance premium rate increases. Without long-term care insurance, many more people would exhaust their savings on care costs and then potentially rely on public programs such as Medicaid for their additional care needs.    Long-term care insurance requires a long projection period with assumptions extending over 50 years into the future, which creates a high level of uncertainty. The premium rates needed to ultimately be sufficient are also affected by changing circumstances, such as changing service providers, for example the growth of assisted living facilities; changes in incidents of Alzheimer's disease; the effects of mortality improvement in the population; and changes in family composition reducing availability of caregivers.    Determining premium increases is a relatively straightforward mathematical calculation. However, determining projection assumptions can be difficult. Actual historical experience that are sufficiently credible is needed to justify the future assumptions used in projections. With long-term care insurance, it can take a long time from the purchase of a policy until the first time a claim is submitted. This means that for a relatively young group of policy forms, there is often little claims experience to justify premium rate increases based on those forms alone.    Actuaries are required by actuarialstandards of practice to use alternative data sources, such as experience from the insurance companies older, similar policy forms or public data for identifying reasonable assumptions. Waiting until there is adequate claim information on each policy form can result in much larger, less affordable rate increases.    Insurers have routinely allowed insureds to reduce coverage by changing benefit options in order to help offset some or all of the rate increase. In an effort to enable policyholders faced with a rate increase to retain significant coverage, some companies have started making available an option for policyholders to avoid the rate increase by reducing their future automatic built-in inflation increases.    In closing, I want to mention that I understand that these premium rate increases can affect families. My own personal experience with long-term care insurance was that my grandpa had a policy. It had a small daily benefit. He gave up the inflation option to avoid rate increases. When he moved into an assisted living facility, his long-term care insurance policy, along with his income from Social Security was enough to make the cost affordable for him.    Predicting future policyholder and service provider types and availability can be difficult. This uncertain future makes it important that there is a way to take corrective action. The more conservative assumptions used in today's pricing of private long-term care insurance and the improved speed at taking corrective action should improve future projections resulting in fewer and smaller rate increases.    I, again, thank you for the opportunity to be here today with you and share the recent analysis by the American Academy of Actuaries on long-term care insurance. I would be happy to answer any questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Walberg. Thank you, Ms. Kastrup.    And now I recognize Mr. Thissen for your 5 minutes of testimony.</t>
   </si>
   <si>
+    <t>Thissen</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Thissen. Good afternoon, and thank you for the opportunity to express NARFE's view on premium increases for enrollees in the Federal Long Term Care Insurance Program, or     NARFE was proud to have played the lead role in supporting legislation creating FLTCIP, but we are extremely disappointed in the recent premium increases. FLTCIP premiums increased by an astounding 83 percent on average and by as much as 126 percent for nearly 40 percent of the enrollees. The average increase amounts to $111 per month. For many, the increase will be much larger.    These cost increases come as a rude awakening for enrollees. Following the announcement in July, they were presented with difficult and unfair choices: Pay substantially higher premiums, reduce coverage significantly, or abandon what for some had become more than a decade-long investment in protecting their future. This situation should not have occurred and signals the need for changes in the program.    We have heard from hundreds of NARFE members, and their messages have been personal and blunt. One NARFE member reported her premiums would rise from $275 to more than $600 per month. She is not alone in her experience. Another member told me, ``I am so much older now than when I entered the Federal plan, the cost to switch to another plan would be prohibitive. All my bills are fixed. The new payment will have to come from the grocery budget.'' Another said, ``We have already paid John Hancock $56,000 in premiums. We cannot quit now. We have too much invested. We are outraged by this bait and switch scheme,'' end quote.    For these enrollees, the reasons behind the increases come as little comfort, but are worth examining. The actuaries got it wrong. Long-term care costs are rising faster than expected and interest rates are expected to remain low. This may be the case, but the actuaries and the insurance company did not just get it wrong, they got it very wrong.    We hope this hearing, at the very least, provides the opportunity to further investigate why the assumptions were so far off and how lessons learned from those mistakes may be applied to assumptions about the future. But our efforts should not end there. We need to plan for long-term care--the need to plan for long-term care is as much a reality today as it was when the program was created 16 years ago.    Average long-term care costs are high, $3,800 per month for home health, $3,600 to stay in an assisted living facility, $7,700 for a private room in a nursing home. Sixty-nine percent of Americans will need some long-term care services for an average of 3 years. Without adequate insurance, too many will be bankrupt and forced to rely on Medicaid.    Federal employees and retirees want to do the responsible thing for themselves and their family. This program seeks to address the real need to plan for these future long-term care costs, but the lack of price stability and affordability make it increasingly difficult to do so. Legislative reforms are needed.    NARFE proposed a number of policy options in my written testimony. One of these proposals including providing enrollees an option to convert their plans to hybrid long-term care/life insurance policies, which would provide price stability. Another is to provide options to extend waiting periods or buy plans with deductibles which would improve affordability.    NARFE also supports broader reforms to the national long-term care policy. The crisis faced by FLTCIP is not unique. Individuals in private long-term care insurance plans are facing significant premium increases, and neither FLTCIP nor any other private long-term care insurance provider is continuing to offer unlimited catastrophic coverage.    Middle-class consumers seeking to insure against the worst-case scenarios are left with no options at all. Rather, Medicaid, a program intended to protect those in poverty, steps in as the only catastrophic option for consumers who must bankrupt themselves in order to qualify. Instead, NARFE supports a public-private partnership with a universal catastrophic insurance program that covers costs between the first 2 or 3 years of care and private insurance, such as FLTCIP, to cover the front end costs of care.    It is incumbent upon this subcommittee to support real reforms that provide Americans with affordable, reliable options. Enrollees should not bear the risk when insurance companies and actuaries make mistakes, and they should have options available to plan for their future needs. NARFE looks forward to working with Congress to pursue them. The status quo is unacceptable. Thank you so much.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Walberg. Thank you for your testimony.    And now I recognize Mr. Cohen for your 5 minutes of testimony.</t>
   </si>
   <si>
+    <t>Cohen</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Cohen. Thank you, Vice Chair Walberg, Ranking Member Connolly, and members of the subcommittee. I'm Marc Cohen, the director of the Center for Long-Term Services and Supports at the McCormick Graduate School at UMass Boston, and a former president and current adviser to LifePlans, Inc., a long-term care research, consulting, and risk management company.    I appreciate the opportunity to testify in this topic. And in my testimony today, I will draw upon my 25 years of research focused on the private insurance market. I'd like to make three broad points today.    First, the rate increases that we're discussing should be viewed within the broader context of the long-term care insurance market and the challenges faced by all insurers in that market. These rate increases are occurring across almost all blocks of business as actuaries learn how the product is performing and make adjustments to their initial pricing assumptions.    Second, the current marketplace challenges do not diminish the need for an insurance-based solution for middle-class Americans, many of whom will face catastrophic costs and financial impoverishment in the absence of insurance solutions.    Finally, without public action, the private insurance market alone is unlikely to play a meaningful role in financing the Nation's long-term care needs. More specifically, an insurance-based public/private partnership stands the best chance of moving the needle on protecting middle-class Americans from significant costs that threaten their retirement.    Let me begin by making a few key observations to frame some of the subsequent discussion. Today, fewer than 10 percent have insurance protection, industrywide sales are declining significantly, and many companies have exited the market. Thus, the market is shrinking rather than growing, and this at a time when more Americans are facing significant long-term care costs.    There are a number of reasons why so many insurers have stopped offering policies. On the demand side, selling costs are high because consumers lack knowledge and understanding about long-term care risks and costs. They're confused about the role of public programs and there's general mistrust of insurers. On the supply side, insurers have faced a variety of unpredictable and often uncontrollable risks that are hard to spread. For example, given the current funding structure of almost all standalone policies, companies must correctly estimate yields on investment premiums 20 to 30 years into the future. An err of just a few percentage points in such an estimate can result in very large premium increases to assure adequate funding of future claims.    Second, unfolding negative claims experience has led to large rate increases as insurers waited many years before requesting some of these rate increases. Recent research shows that people would prefer smaller but more frequent adjustments rather than large infrequent ones. The problem is that these premium increases have made the product too costly for a growing number of middle-class consumers who only have personal savings and safety net programs like Medicaid to rely on should they require significant amounts of care.    Despite private sector challenges, variation in long-term care needs and expenses make risk pooling through insurance desirable. The underdevelopment and growing unaffordability of private insurance in the absence of any public insurance present a fundamental problem. People have no way to effectively plan for what is a perfectly insurable risk.    Since current strategies have not worked well in assuring broad consumer appeal and ensure enthusiasm, what can be done? Some concrete actions include simplifying and standardizing products to reduce selling costs, changing the structure of premiums payments so that there is some level of indexing to address both affordability and premium stability issues.    Also, without expanded Federal and/or State support designed to spur both demand and supply, however, the needle is unlikely to move enough to protect the majority of middle-class Americans. In addition to an educational campaign designed to reduce consumer confusion and increase knowledge and awareness, we need to think more broadly about shared public and private insurance models.    For example, given that the private insurance market is not willing to provide products any longer that cover the catastrophic tail risk, one might consider whether and how States or the Federal Government might do so. Such an approach could provide a basis--a base that the private insurance industry could supplement or wrap around, and it would likely encourage more insurers to get back into the market, broaden the risk pool, and lower the cost of insurance products.    In the interest of time, I will stop here, but would be happy to answer any questions that the committee might have. Thank you.</t>
   </si>
   <si>
@@ -124,6 +160,12 @@
     <t>412661</t>
   </si>
   <si>
+    <t>Grothman</t>
+  </si>
+  <si>
+    <t>Glenn</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Grothman. Interesting testimony. I'm going to ask Ms. Kastrup--is that right?--a few questions. I don't know if you're familiar with this product as opposed to other products, but whenever there's insurance, I don't care whether it's health insurance, car insurance, whatever, you always kind of wonder how much of that premium is going for claims and how much is going for overhead and commissions and that sort of thing.    Could you give me, the insurance industry in general, how much of, say, auto insurance, health insurance, and long-term insurance, how much goes for claims?</t>
   </si>
   <si>
@@ -364,6 +406,12 @@
     <t>400249</t>
   </si>
   <si>
+    <t>Lynch</t>
+  </si>
+  <si>
+    <t>Stephen</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Lynch. Thank you, Mr. Chairman, and thank you and the ranking member for holding this hearing.    I want to welcome our witnesses. Thank you for the important input you've had and the advice. I read through your papers; very, very helpful.    This is a thorny issue, and as someone who's an advocate on behalf of Federal employees, this was a shocker. I do understand that the real issues behind this, though, I've had some experience sitting as a trustee on pension funds where we assumed years ago that would always have, you know, our target rate was 7 or 8 percent interest on our funds and actuarially we could sort of stay within those guidelines and we could provide the fine benefit pensions to people and we could project that out. Now, we're in an interest rate period where it's half that.    And so, Mr. Doughty, is that the core issue for you here in terms of--you're trying to project over a very long period of time. I know you're experience rating is different. You know, the expectations on long-term morbidity and all of that, but the fact that you can't--if you're putting this money in the market and getting return on your investment and it's so low, even over a long period of time, you cannot pay the benefits. Is that the crux of the problem?</t>
   </si>
   <si>
@@ -427,9 +475,18 @@
     <t>412226</t>
   </si>
   <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Jim</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Jordan. [Presiding.] I thank the gentleman for yielding.    And I now recognize the gentlelady from Virginia for her 5 minutes.</t>
   </si>
   <si>
+    <t>Comstock</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs. Comstock. Thank you, Mr. Chairman. And I thank the committee for holding this hearing.    You know, when my constituents, seeing as I'm in Virginia and have many Federal employees also, were notified by OPM on July of these large premium increases, they were understandably concerned, and we certainly did hear a lot from them. And that's why I had joined folks in requesting the hearing. So I appreciate you all being here and taking a look at this issue.    Walt Frances, a health economist and an expert on these programs, is quoted in the Washington Post as saying, quote, ``This never should have happened. The long-term care estimate should have been actuarially sound and accurate, taking into account far more carefully both the possibility of low interest rates, the low rate of return on premiums invested in bonds, and thirdly, the average selection by persons most likely to need long-term care.''    Could Mr. Doughty and Mr. O'Brien address the industry assumptions that were here as well as just the general statement? And maybe some others would like to join also, but why don't we start.</t>
   </si>
   <si>
@@ -466,6 +523,9 @@
     <t xml:space="preserve">    Mr. Jordan. I thank the gentlelady for yielding back.    We now recognize the gentleman from Virginia, Mr. Beyer.</t>
   </si>
   <si>
+    <t>Beyer</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Beyer. Thank you, Mr. Chairman. Thanks for allowing me to sit in on the hearing today.    You know, this is something that affects many of my constituents. I think I have more Federal employees than Federal retirees than any other Member of Congress. And, believe me, we have heard from them. The phone rang off the hook.</t>
   </si>
   <si>
@@ -560,6 +620,12 @@
   </si>
   <si>
     <t>412619</t>
+  </si>
+  <si>
+    <t>Buck</t>
+  </si>
+  <si>
+    <t>Ken</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Buck. [Presiding.] The gentleman yields back.    Does the gentleman from Wisconsin have any questions?</t>
@@ -1022,7 +1088,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H206"/>
+  <dimension ref="A1:I206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1030,7 +1096,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1052,4925 +1118,5743 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
       <c r="H7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
         <v>13</v>
       </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G13" t="s">
+        <v>32</v>
+      </c>
       <c r="H13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G15" t="s">
+        <v>32</v>
+      </c>
       <c r="H15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G17" t="s">
+        <v>32</v>
+      </c>
       <c r="H17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G19" t="s">
+        <v>32</v>
+      </c>
       <c r="H19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G20" t="s">
+        <v>44</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G21" t="s">
+        <v>32</v>
+      </c>
       <c r="H21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>47</v>
+      </c>
+      <c r="G22" t="s">
+        <v>48</v>
+      </c>
       <c r="H22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>47</v>
+      </c>
+      <c r="G24" t="s">
+        <v>48</v>
+      </c>
       <c r="H24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>23</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>47</v>
+      </c>
+      <c r="G26" t="s">
+        <v>48</v>
+      </c>
       <c r="H26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>23</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G27" t="s">
+        <v>38</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>47</v>
+      </c>
+      <c r="G28" t="s">
+        <v>48</v>
+      </c>
       <c r="H28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>23</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G29" t="s">
+        <v>38</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>47</v>
+      </c>
+      <c r="G30" t="s">
+        <v>48</v>
+      </c>
       <c r="H30" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>23</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G31" t="s">
+        <v>38</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>35</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>47</v>
+      </c>
+      <c r="G32" t="s">
+        <v>48</v>
+      </c>
       <c r="H32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>23</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G33" t="s">
+        <v>38</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>35</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>47</v>
+      </c>
+      <c r="G34" t="s">
+        <v>48</v>
+      </c>
       <c r="H34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>23</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G35" t="s">
+        <v>44</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>35</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>47</v>
+      </c>
+      <c r="G36" t="s">
+        <v>48</v>
+      </c>
       <c r="H36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>23</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G37" t="s">
+        <v>44</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>35</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>47</v>
+      </c>
+      <c r="G38" t="s">
+        <v>48</v>
+      </c>
       <c r="H38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>23</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G39" t="s">
+        <v>44</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>35</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>47</v>
+      </c>
+      <c r="G40" t="s">
+        <v>48</v>
+      </c>
       <c r="H40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>23</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G41" t="s">
+        <v>44</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>35</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>47</v>
+      </c>
+      <c r="G42" t="s">
+        <v>48</v>
+      </c>
       <c r="H42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>23</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G43" t="s">
+        <v>44</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>35</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>47</v>
+      </c>
+      <c r="G44" t="s">
+        <v>48</v>
+      </c>
       <c r="H44" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>23</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G45" t="s">
+        <v>44</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>35</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>47</v>
+      </c>
+      <c r="G46" t="s">
+        <v>48</v>
+      </c>
       <c r="H46" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>23</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G47" t="s">
+        <v>29</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>35</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>47</v>
+      </c>
+      <c r="G48" t="s">
+        <v>48</v>
+      </c>
       <c r="H48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>23</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G49" t="s">
+        <v>29</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>35</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>47</v>
+      </c>
+      <c r="G50" t="s">
+        <v>48</v>
+      </c>
       <c r="H50" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I50" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>25</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G51" t="s">
+        <v>32</v>
+      </c>
       <c r="H51" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>35</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>47</v>
+      </c>
+      <c r="G52" t="s">
+        <v>48</v>
+      </c>
       <c r="H52" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I52" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>25</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G53" t="s">
+        <v>32</v>
+      </c>
       <c r="H53" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I53" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>13</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G54" t="s">
+        <v>17</v>
+      </c>
       <c r="H54" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I54" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>23</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G55" t="s">
+        <v>29</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G56" t="s">
+        <v>17</v>
+      </c>
       <c r="H56" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I56" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>23</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G57" t="s">
+        <v>29</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>13</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G58" t="s">
+        <v>17</v>
+      </c>
       <c r="H58" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I58" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>23</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G59" t="s">
+        <v>29</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>13</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G60" t="s">
+        <v>17</v>
+      </c>
       <c r="H60" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I60" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>23</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G61" t="s">
+        <v>29</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>13</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G62" t="s">
+        <v>17</v>
+      </c>
       <c r="H62" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I62" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>23</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G63" t="s">
+        <v>29</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>13</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G64" t="s">
+        <v>17</v>
+      </c>
       <c r="H64" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I64" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>23</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G65" t="s">
+        <v>29</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>13</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G66" t="s">
+        <v>17</v>
+      </c>
       <c r="H66" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I66" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>23</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G67" t="s">
+        <v>29</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>13</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G68" t="s">
+        <v>17</v>
+      </c>
       <c r="H68" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I68" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>23</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G69" t="s">
+        <v>44</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>13</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G70" t="s">
+        <v>17</v>
+      </c>
       <c r="H70" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I70" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>23</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G71" t="s">
+        <v>44</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>13</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G72" t="s">
+        <v>17</v>
+      </c>
       <c r="H72" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I72" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>23</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G73" t="s">
+        <v>44</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>13</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G74" t="s">
+        <v>17</v>
+      </c>
       <c r="H74" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I74" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>23</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G75" t="s">
+        <v>44</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>13</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G76" t="s">
+        <v>17</v>
+      </c>
       <c r="H76" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I76" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>23</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G77" t="s">
+        <v>44</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>13</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G78" t="s">
+        <v>17</v>
+      </c>
       <c r="H78" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I78" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>23</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G79" t="s">
+        <v>44</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>13</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G80" t="s">
+        <v>17</v>
+      </c>
       <c r="H80" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I80" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>23</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G81" t="s">
+        <v>35</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>13</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G82" t="s">
+        <v>17</v>
+      </c>
       <c r="H82" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I82" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>25</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G83" t="s">
+        <v>32</v>
+      </c>
       <c r="H83" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I83" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>23</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G84" t="s">
+        <v>38</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>25</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G85" t="s">
+        <v>32</v>
+      </c>
       <c r="H85" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I85" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>23</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G86" t="s">
+        <v>38</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>25</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G87" t="s">
+        <v>32</v>
+      </c>
       <c r="H87" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I87" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>23</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G88" t="s">
+        <v>38</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>25</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G89" t="s">
+        <v>32</v>
+      </c>
       <c r="H89" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I89" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>23</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G90" t="s">
+        <v>29</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>25</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G91" t="s">
+        <v>32</v>
+      </c>
       <c r="H91" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I91" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>23</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G92" t="s">
+        <v>29</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>25</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G93" t="s">
+        <v>32</v>
+      </c>
       <c r="H93" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I93" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>23</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G94" t="s">
+        <v>29</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>25</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G95" t="s">
+        <v>32</v>
+      </c>
       <c r="H95" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I95" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>23</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G96" t="s">
+        <v>29</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>25</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G97" t="s">
+        <v>32</v>
+      </c>
       <c r="H97" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I97" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>23</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G98" t="s">
+        <v>29</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>25</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G99" t="s">
+        <v>32</v>
+      </c>
       <c r="H99" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I99" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>23</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G100" t="s">
+        <v>29</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>25</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G101" t="s">
+        <v>32</v>
+      </c>
       <c r="H101" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I101" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>115</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>129</v>
+      </c>
+      <c r="G102" t="s">
+        <v>130</v>
+      </c>
       <c r="H102" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>131</v>
+      </c>
+      <c r="I102" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>23</v>
-      </c>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G103" t="s">
+        <v>29</v>
+      </c>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>115</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>129</v>
+      </c>
+      <c r="G104" t="s">
+        <v>130</v>
+      </c>
       <c r="H104" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>131</v>
+      </c>
+      <c r="I104" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>23</v>
-      </c>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G105" t="s">
+        <v>29</v>
+      </c>
+      <c r="H105" t="s"/>
+      <c r="I105" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>115</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>129</v>
+      </c>
+      <c r="G106" t="s">
+        <v>130</v>
+      </c>
       <c r="H106" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>131</v>
+      </c>
+      <c r="I106" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>23</v>
-      </c>
-      <c r="G107" t="s"/>
-      <c r="H107" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G107" t="s">
+        <v>29</v>
+      </c>
+      <c r="H107" t="s"/>
+      <c r="I107" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>115</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>129</v>
+      </c>
+      <c r="G108" t="s">
+        <v>130</v>
+      </c>
       <c r="H108" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>131</v>
+      </c>
+      <c r="I108" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>23</v>
-      </c>
-      <c r="G109" t="s"/>
-      <c r="H109" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G109" t="s">
+        <v>29</v>
+      </c>
+      <c r="H109" t="s"/>
+      <c r="I109" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>115</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>129</v>
+      </c>
+      <c r="G110" t="s">
+        <v>130</v>
+      </c>
       <c r="H110" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>131</v>
+      </c>
+      <c r="I110" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>23</v>
-      </c>
-      <c r="G111" t="s"/>
-      <c r="H111" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G111" t="s">
+        <v>29</v>
+      </c>
+      <c r="H111" t="s"/>
+      <c r="I111" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>115</v>
-      </c>
-      <c r="G112" t="s"/>
+        <v>129</v>
+      </c>
+      <c r="G112" t="s">
+        <v>130</v>
+      </c>
       <c r="H112" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>131</v>
+      </c>
+      <c r="I112" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>23</v>
-      </c>
-      <c r="G113" t="s"/>
-      <c r="H113" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G113" t="s">
+        <v>29</v>
+      </c>
+      <c r="H113" t="s"/>
+      <c r="I113" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>115</v>
-      </c>
-      <c r="G114" t="s"/>
+        <v>129</v>
+      </c>
+      <c r="G114" t="s">
+        <v>130</v>
+      </c>
       <c r="H114" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>131</v>
+      </c>
+      <c r="I114" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>23</v>
-      </c>
-      <c r="G115" t="s"/>
-      <c r="H115" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G115" t="s">
+        <v>44</v>
+      </c>
+      <c r="H115" t="s"/>
+      <c r="I115" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>115</v>
-      </c>
-      <c r="G116" t="s"/>
+        <v>129</v>
+      </c>
+      <c r="G116" t="s">
+        <v>130</v>
+      </c>
       <c r="H116" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>131</v>
+      </c>
+      <c r="I116" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>23</v>
-      </c>
-      <c r="G117" t="s"/>
-      <c r="H117" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G117" t="s">
+        <v>44</v>
+      </c>
+      <c r="H117" t="s"/>
+      <c r="I117" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>115</v>
-      </c>
-      <c r="G118" t="s"/>
+        <v>129</v>
+      </c>
+      <c r="G118" t="s">
+        <v>130</v>
+      </c>
       <c r="H118" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>131</v>
+      </c>
+      <c r="I118" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>23</v>
-      </c>
-      <c r="G119" t="s"/>
-      <c r="H119" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G119" t="s">
+        <v>44</v>
+      </c>
+      <c r="H119" t="s"/>
+      <c r="I119" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>115</v>
-      </c>
-      <c r="G120" t="s"/>
+        <v>129</v>
+      </c>
+      <c r="G120" t="s">
+        <v>130</v>
+      </c>
       <c r="H120" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>131</v>
+      </c>
+      <c r="I120" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>23</v>
-      </c>
-      <c r="G121" t="s"/>
-      <c r="H121" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G121" t="s">
+        <v>44</v>
+      </c>
+      <c r="H121" t="s"/>
+      <c r="I121" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>115</v>
-      </c>
-      <c r="G122" t="s"/>
+        <v>129</v>
+      </c>
+      <c r="G122" t="s">
+        <v>130</v>
+      </c>
       <c r="H122" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>131</v>
+      </c>
+      <c r="I122" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>115</v>
-      </c>
-      <c r="G123" t="s"/>
+        <v>129</v>
+      </c>
+      <c r="G123" t="s">
+        <v>130</v>
+      </c>
       <c r="H123" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>131</v>
+      </c>
+      <c r="I123" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>136</v>
-      </c>
-      <c r="G124" t="s"/>
+        <v>152</v>
+      </c>
+      <c r="G124" t="s">
+        <v>153</v>
+      </c>
       <c r="H124" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>154</v>
+      </c>
+      <c r="I124" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>23</v>
-      </c>
-      <c r="G125" t="s"/>
-      <c r="H125" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G125" t="s">
+        <v>156</v>
+      </c>
+      <c r="H125" t="s"/>
+      <c r="I125" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>23</v>
-      </c>
-      <c r="G126" t="s"/>
-      <c r="H126" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G126" t="s">
+        <v>29</v>
+      </c>
+      <c r="H126" t="s"/>
+      <c r="I126" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>23</v>
-      </c>
-      <c r="G127" t="s"/>
-      <c r="H127" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G127" t="s">
+        <v>156</v>
+      </c>
+      <c r="H127" t="s"/>
+      <c r="I127" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>23</v>
-      </c>
-      <c r="G128" t="s"/>
-      <c r="H128" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G128" t="s">
+        <v>35</v>
+      </c>
+      <c r="H128" t="s"/>
+      <c r="I128" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>13</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G129" t="s">
+        <v>17</v>
+      </c>
       <c r="H129" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I129" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>23</v>
-      </c>
-      <c r="G130" t="s"/>
-      <c r="H130" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G130" t="s">
+        <v>35</v>
+      </c>
+      <c r="H130" t="s"/>
+      <c r="I130" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>23</v>
-      </c>
-      <c r="G131" t="s"/>
-      <c r="H131" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G131" t="s">
+        <v>38</v>
+      </c>
+      <c r="H131" t="s"/>
+      <c r="I131" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>23</v>
-      </c>
-      <c r="G132" t="s"/>
-      <c r="H132" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G132" t="s">
+        <v>44</v>
+      </c>
+      <c r="H132" t="s"/>
+      <c r="I132" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>23</v>
-      </c>
-      <c r="G133" t="s"/>
-      <c r="H133" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G133" t="s">
+        <v>156</v>
+      </c>
+      <c r="H133" t="s"/>
+      <c r="I133" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>23</v>
-      </c>
-      <c r="G134" t="s"/>
-      <c r="H134" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G134" t="s">
+        <v>41</v>
+      </c>
+      <c r="H134" t="s"/>
+      <c r="I134" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>23</v>
-      </c>
-      <c r="G135" t="s"/>
-      <c r="H135" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G135" t="s">
+        <v>156</v>
+      </c>
+      <c r="H135" t="s"/>
+      <c r="I135" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>136</v>
-      </c>
-      <c r="G136" t="s"/>
+        <v>152</v>
+      </c>
+      <c r="G136" t="s">
+        <v>153</v>
+      </c>
       <c r="H136" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>154</v>
+      </c>
+      <c r="I136" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>23</v>
-      </c>
-      <c r="G137" t="s"/>
-      <c r="H137" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G137" t="s">
+        <v>169</v>
+      </c>
+      <c r="H137" t="s"/>
+      <c r="I137" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>13</v>
-      </c>
-      <c r="G138" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G138" t="s">
+        <v>17</v>
+      </c>
       <c r="H138" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I138" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>23</v>
-      </c>
-      <c r="G139" t="s"/>
-      <c r="H139" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G139" t="s">
+        <v>169</v>
+      </c>
+      <c r="H139" t="s"/>
+      <c r="I139" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>23</v>
-      </c>
-      <c r="G140" t="s"/>
-      <c r="H140" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G140" t="s">
+        <v>35</v>
+      </c>
+      <c r="H140" t="s"/>
+      <c r="I140" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>23</v>
-      </c>
-      <c r="G141" t="s"/>
-      <c r="H141" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G141" t="s">
+        <v>169</v>
+      </c>
+      <c r="H141" t="s"/>
+      <c r="I141" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>23</v>
-      </c>
-      <c r="G142" t="s"/>
-      <c r="H142" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G142" t="s">
+        <v>35</v>
+      </c>
+      <c r="H142" t="s"/>
+      <c r="I142" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>23</v>
-      </c>
-      <c r="G143" t="s"/>
-      <c r="H143" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G143" t="s">
+        <v>169</v>
+      </c>
+      <c r="H143" t="s"/>
+      <c r="I143" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>23</v>
-      </c>
-      <c r="G144" t="s"/>
-      <c r="H144" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G144" t="s">
+        <v>41</v>
+      </c>
+      <c r="H144" t="s"/>
+      <c r="I144" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>13</v>
-      </c>
-      <c r="G145" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G145" t="s">
+        <v>17</v>
+      </c>
       <c r="H145" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I145" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>23</v>
-      </c>
-      <c r="G146" t="s"/>
-      <c r="H146" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G146" t="s">
+        <v>41</v>
+      </c>
+      <c r="H146" t="s"/>
+      <c r="I146" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>23</v>
-      </c>
-      <c r="G147" t="s"/>
-      <c r="H147" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G147" t="s">
+        <v>169</v>
+      </c>
+      <c r="H147" t="s"/>
+      <c r="I147" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>136</v>
-      </c>
-      <c r="G148" t="s"/>
+        <v>152</v>
+      </c>
+      <c r="G148" t="s">
+        <v>153</v>
+      </c>
       <c r="H148" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>154</v>
+      </c>
+      <c r="I148" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>23</v>
-      </c>
-      <c r="G149" t="s"/>
-      <c r="H149" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G149" t="s">
+        <v>156</v>
+      </c>
+      <c r="H149" t="s"/>
+      <c r="I149" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>23</v>
-      </c>
-      <c r="G150" t="s"/>
-      <c r="H150" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G150" t="s">
+        <v>35</v>
+      </c>
+      <c r="H150" t="s"/>
+      <c r="I150" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>23</v>
-      </c>
-      <c r="G151" t="s"/>
-      <c r="H151" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G151" t="s">
+        <v>156</v>
+      </c>
+      <c r="H151" t="s"/>
+      <c r="I151" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>23</v>
-      </c>
-      <c r="G152" t="s"/>
-      <c r="H152" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G152" t="s">
+        <v>35</v>
+      </c>
+      <c r="H152" t="s"/>
+      <c r="I152" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>23</v>
-      </c>
-      <c r="G153" t="s"/>
-      <c r="H153" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G153" t="s">
+        <v>156</v>
+      </c>
+      <c r="H153" t="s"/>
+      <c r="I153" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>23</v>
-      </c>
-      <c r="G154" t="s"/>
-      <c r="H154" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G154" t="s">
+        <v>35</v>
+      </c>
+      <c r="H154" t="s"/>
+      <c r="I154" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>23</v>
-      </c>
-      <c r="G155" t="s"/>
-      <c r="H155" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G155" t="s">
+        <v>156</v>
+      </c>
+      <c r="H155" t="s"/>
+      <c r="I155" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>136</v>
-      </c>
-      <c r="G156" t="s"/>
+        <v>152</v>
+      </c>
+      <c r="G156" t="s">
+        <v>153</v>
+      </c>
       <c r="H156" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>154</v>
+      </c>
+      <c r="I156" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>13</v>
-      </c>
-      <c r="G157" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G157" t="s">
+        <v>17</v>
+      </c>
       <c r="H157" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I157" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>23</v>
-      </c>
-      <c r="G158" t="s"/>
-      <c r="H158" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G158" t="s">
+        <v>35</v>
+      </c>
+      <c r="H158" t="s"/>
+      <c r="I158" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>13</v>
-      </c>
-      <c r="G159" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G159" t="s">
+        <v>17</v>
+      </c>
       <c r="H159" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I159" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>23</v>
-      </c>
-      <c r="G160" t="s"/>
-      <c r="H160" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G160" t="s">
+        <v>35</v>
+      </c>
+      <c r="H160" t="s"/>
+      <c r="I160" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>13</v>
-      </c>
-      <c r="G161" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G161" t="s">
+        <v>17</v>
+      </c>
       <c r="H161" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I161" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>23</v>
-      </c>
-      <c r="G162" t="s"/>
-      <c r="H162" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G162" t="s">
+        <v>35</v>
+      </c>
+      <c r="H162" t="s"/>
+      <c r="I162" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>13</v>
-      </c>
-      <c r="G163" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G163" t="s">
+        <v>17</v>
+      </c>
       <c r="H163" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I163" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>23</v>
-      </c>
-      <c r="G164" t="s"/>
-      <c r="H164" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G164" t="s">
+        <v>35</v>
+      </c>
+      <c r="H164" t="s"/>
+      <c r="I164" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>13</v>
-      </c>
-      <c r="G165" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G165" t="s">
+        <v>17</v>
+      </c>
       <c r="H165" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I165" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>23</v>
-      </c>
-      <c r="G166" t="s"/>
-      <c r="H166" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G166" t="s">
+        <v>35</v>
+      </c>
+      <c r="H166" t="s"/>
+      <c r="I166" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>13</v>
-      </c>
-      <c r="G167" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G167" t="s">
+        <v>17</v>
+      </c>
       <c r="H167" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I167" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>181</v>
-      </c>
-      <c r="G168" t="s"/>
+        <v>201</v>
+      </c>
+      <c r="G168" t="s">
+        <v>202</v>
+      </c>
       <c r="H168" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>203</v>
+      </c>
+      <c r="I168" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>35</v>
-      </c>
-      <c r="G169" t="s"/>
+        <v>47</v>
+      </c>
+      <c r="G169" t="s">
+        <v>48</v>
+      </c>
       <c r="H169" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I169" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>23</v>
-      </c>
-      <c r="G170" t="s"/>
-      <c r="H170" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G170" t="s">
+        <v>35</v>
+      </c>
+      <c r="H170" t="s"/>
+      <c r="I170" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>35</v>
-      </c>
-      <c r="G171" t="s"/>
+        <v>47</v>
+      </c>
+      <c r="G171" t="s">
+        <v>48</v>
+      </c>
       <c r="H171" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I171" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>23</v>
-      </c>
-      <c r="G172" t="s"/>
-      <c r="H172" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G172" t="s">
+        <v>35</v>
+      </c>
+      <c r="H172" t="s"/>
+      <c r="I172" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>35</v>
-      </c>
-      <c r="G173" t="s"/>
+        <v>47</v>
+      </c>
+      <c r="G173" t="s">
+        <v>48</v>
+      </c>
       <c r="H173" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I173" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>23</v>
-      </c>
-      <c r="G174" t="s"/>
-      <c r="H174" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G174" t="s">
+        <v>29</v>
+      </c>
+      <c r="H174" t="s"/>
+      <c r="I174" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>35</v>
-      </c>
-      <c r="G175" t="s"/>
+        <v>47</v>
+      </c>
+      <c r="G175" t="s">
+        <v>48</v>
+      </c>
       <c r="H175" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I175" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F176" t="s">
-        <v>23</v>
-      </c>
-      <c r="G176" t="s"/>
-      <c r="H176" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G176" t="s">
+        <v>29</v>
+      </c>
+      <c r="H176" t="s"/>
+      <c r="I176" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F177" t="s">
-        <v>35</v>
-      </c>
-      <c r="G177" t="s"/>
+        <v>47</v>
+      </c>
+      <c r="G177" t="s">
+        <v>48</v>
+      </c>
       <c r="H177" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I177" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F178" t="s">
-        <v>23</v>
-      </c>
-      <c r="G178" t="s"/>
-      <c r="H178" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G178" t="s">
+        <v>29</v>
+      </c>
+      <c r="H178" t="s"/>
+      <c r="I178" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F179" t="s">
-        <v>35</v>
-      </c>
-      <c r="G179" t="s"/>
+        <v>47</v>
+      </c>
+      <c r="G179" t="s">
+        <v>48</v>
+      </c>
       <c r="H179" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I179" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F180" t="s">
-        <v>23</v>
-      </c>
-      <c r="G180" t="s"/>
-      <c r="H180" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G180" t="s">
+        <v>29</v>
+      </c>
+      <c r="H180" t="s"/>
+      <c r="I180" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F181" t="s">
-        <v>35</v>
-      </c>
-      <c r="G181" t="s"/>
+        <v>47</v>
+      </c>
+      <c r="G181" t="s">
+        <v>48</v>
+      </c>
       <c r="H181" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I181" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F182" t="s">
-        <v>23</v>
-      </c>
-      <c r="G182" t="s"/>
-      <c r="H182" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G182" t="s">
+        <v>29</v>
+      </c>
+      <c r="H182" t="s"/>
+      <c r="I182" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F183" t="s">
-        <v>35</v>
-      </c>
-      <c r="G183" t="s"/>
+        <v>47</v>
+      </c>
+      <c r="G183" t="s">
+        <v>48</v>
+      </c>
       <c r="H183" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I183" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F184" t="s">
-        <v>23</v>
-      </c>
-      <c r="G184" t="s"/>
-      <c r="H184" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G184" t="s">
+        <v>29</v>
+      </c>
+      <c r="H184" t="s"/>
+      <c r="I184" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F185" t="s">
-        <v>35</v>
-      </c>
-      <c r="G185" t="s"/>
+        <v>47</v>
+      </c>
+      <c r="G185" t="s">
+        <v>48</v>
+      </c>
       <c r="H185" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I185" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F186" t="s">
-        <v>23</v>
-      </c>
-      <c r="G186" t="s"/>
-      <c r="H186" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G186" t="s">
+        <v>29</v>
+      </c>
+      <c r="H186" t="s"/>
+      <c r="I186" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F187" t="s">
-        <v>35</v>
-      </c>
-      <c r="G187" t="s"/>
+        <v>47</v>
+      </c>
+      <c r="G187" t="s">
+        <v>48</v>
+      </c>
       <c r="H187" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I187" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F188" t="s">
-        <v>23</v>
-      </c>
-      <c r="G188" t="s"/>
-      <c r="H188" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G188" t="s">
+        <v>29</v>
+      </c>
+      <c r="H188" t="s"/>
+      <c r="I188" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F189" t="s">
-        <v>35</v>
-      </c>
-      <c r="G189" t="s"/>
+        <v>47</v>
+      </c>
+      <c r="G189" t="s">
+        <v>48</v>
+      </c>
       <c r="H189" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I189" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F190" t="s">
-        <v>23</v>
-      </c>
-      <c r="G190" t="s"/>
-      <c r="H190" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G190" t="s">
+        <v>44</v>
+      </c>
+      <c r="H190" t="s"/>
+      <c r="I190" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F191" t="s">
-        <v>35</v>
-      </c>
-      <c r="G191" t="s"/>
+        <v>47</v>
+      </c>
+      <c r="G191" t="s">
+        <v>48</v>
+      </c>
       <c r="H191" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I191" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F192" t="s">
-        <v>23</v>
-      </c>
-      <c r="G192" t="s"/>
-      <c r="H192" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G192" t="s">
+        <v>44</v>
+      </c>
+      <c r="H192" t="s"/>
+      <c r="I192" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F193" t="s">
-        <v>35</v>
-      </c>
-      <c r="G193" t="s"/>
+        <v>47</v>
+      </c>
+      <c r="G193" t="s">
+        <v>48</v>
+      </c>
       <c r="H193" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I193" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F194" t="s">
-        <v>23</v>
-      </c>
-      <c r="G194" t="s"/>
-      <c r="H194" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G194" t="s">
+        <v>44</v>
+      </c>
+      <c r="H194" t="s"/>
+      <c r="I194" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F195" t="s">
-        <v>35</v>
-      </c>
-      <c r="G195" t="s"/>
+        <v>47</v>
+      </c>
+      <c r="G195" t="s">
+        <v>48</v>
+      </c>
       <c r="H195" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I195" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F196" t="s">
-        <v>181</v>
-      </c>
-      <c r="G196" t="s"/>
+        <v>201</v>
+      </c>
+      <c r="G196" t="s">
+        <v>202</v>
+      </c>
       <c r="H196" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
+        <v>203</v>
+      </c>
+      <c r="I196" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F197" t="s">
-        <v>23</v>
-      </c>
-      <c r="G197" t="s"/>
-      <c r="H197" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G197" t="s">
+        <v>169</v>
+      </c>
+      <c r="H197" t="s"/>
+      <c r="I197" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F198" t="s">
-        <v>23</v>
-      </c>
-      <c r="G198" t="s"/>
-      <c r="H198" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G198" t="s">
+        <v>29</v>
+      </c>
+      <c r="H198" t="s"/>
+      <c r="I198" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F199" t="s">
-        <v>23</v>
-      </c>
-      <c r="G199" t="s"/>
-      <c r="H199" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G199" t="s">
+        <v>169</v>
+      </c>
+      <c r="H199" t="s"/>
+      <c r="I199" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E200" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F200" t="s">
-        <v>23</v>
-      </c>
-      <c r="G200" t="s"/>
-      <c r="H200" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G200" t="s">
+        <v>35</v>
+      </c>
+      <c r="H200" t="s"/>
+      <c r="I200" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D201" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E201" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F201" t="s">
-        <v>23</v>
-      </c>
-      <c r="G201" t="s"/>
-      <c r="H201" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G201" t="s">
+        <v>169</v>
+      </c>
+      <c r="H201" t="s"/>
+      <c r="I201" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C202" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D202" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E202" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F202" t="s">
-        <v>23</v>
-      </c>
-      <c r="G202" t="s"/>
-      <c r="H202" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G202" t="s">
+        <v>35</v>
+      </c>
+      <c r="H202" t="s"/>
+      <c r="I202" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C203" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D203" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E203" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F203" t="s">
-        <v>23</v>
-      </c>
-      <c r="G203" t="s"/>
-      <c r="H203" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G203" t="s">
+        <v>169</v>
+      </c>
+      <c r="H203" t="s"/>
+      <c r="I203" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C204" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D204" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E204" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F204" t="s">
-        <v>23</v>
-      </c>
-      <c r="G204" t="s"/>
-      <c r="H204" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G204" t="s">
+        <v>35</v>
+      </c>
+      <c r="H204" t="s"/>
+      <c r="I204" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
       <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C205" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D205" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E205" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F205" t="s">
-        <v>23</v>
-      </c>
-      <c r="G205" t="s"/>
-      <c r="H205" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G205" t="s">
+        <v>169</v>
+      </c>
+      <c r="H205" t="s"/>
+      <c r="I205" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
       <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C206" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D206" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E206" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F206" t="s">
-        <v>181</v>
-      </c>
-      <c r="G206" t="s"/>
+        <v>201</v>
+      </c>
+      <c r="G206" t="s">
+        <v>202</v>
+      </c>
       <c r="H206" t="s">
-        <v>219</v>
+        <v>203</v>
+      </c>
+      <c r="I206" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg25005.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg25005.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="247">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412552</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Meadows</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>412272</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Connolly</t>
   </si>
   <si>
@@ -112,6 +121,9 @@
     <t>412213</t>
   </si>
   <si>
+    <t>Vice Chair</t>
+  </si>
+  <si>
     <t>Walberg</t>
   </si>
   <si>
@@ -158,6 +170,9 @@
   </si>
   <si>
     <t>412661</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Grothman</t>
@@ -1088,7 +1103,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I206"/>
+  <dimension ref="A1:J206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1096,7 +1111,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1121,5740 +1136,6148 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G11" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="J13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G15" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I15" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H17" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="J17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" t="s">
-        <v>41</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G19" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H19" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="J19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" t="s">
-        <v>44</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>48</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G21" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H21" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="J21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G22" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H22" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" t="s">
-        <v>38</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>42</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G24" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H24" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>42</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G26" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H26" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I26" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="J26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>28</v>
-      </c>
-      <c r="G27" t="s">
-        <v>38</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>42</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G28" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H28" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I28" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>28</v>
-      </c>
-      <c r="G29" t="s">
-        <v>38</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>42</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G30" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H30" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I30" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>28</v>
-      </c>
-      <c r="G31" t="s">
-        <v>38</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G32" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H32" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>28</v>
-      </c>
-      <c r="G33" t="s">
-        <v>38</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>42</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G34" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H34" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I34" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>28</v>
-      </c>
-      <c r="G35" t="s">
-        <v>44</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>48</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G36" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H36" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I36" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>28</v>
-      </c>
-      <c r="G37" t="s">
-        <v>44</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>48</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G38" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H38" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I38" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J38" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>28</v>
-      </c>
-      <c r="G39" t="s">
-        <v>44</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>48</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G40" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H40" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I40" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J40" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>28</v>
-      </c>
-      <c r="G41" t="s">
-        <v>44</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>48</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G42" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H42" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I42" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J42" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>28</v>
-      </c>
-      <c r="G43" t="s">
-        <v>44</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>48</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G44" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H44" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I44" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J44" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>28</v>
-      </c>
-      <c r="G45" t="s">
-        <v>44</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>48</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G46" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H46" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I46" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J46" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>28</v>
-      </c>
-      <c r="G47" t="s">
-        <v>29</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>32</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G48" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H48" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I48" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J48" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>28</v>
-      </c>
-      <c r="G49" t="s">
-        <v>29</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>32</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G50" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H50" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I50" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J50" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G51" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H51" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I51" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="J51" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G52" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H52" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I52" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J52" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G53" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H53" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I53" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="J53" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G54" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H54" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I54" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J54" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>28</v>
-      </c>
-      <c r="G55" t="s">
-        <v>29</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>32</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G56" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H56" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I56" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J56" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>28</v>
-      </c>
-      <c r="G57" t="s">
-        <v>29</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>32</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G58" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H58" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I58" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J58" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>28</v>
-      </c>
-      <c r="G59" t="s">
-        <v>29</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>32</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G60" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H60" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I60" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J60" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>28</v>
-      </c>
-      <c r="G61" t="s">
-        <v>29</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>32</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G62" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H62" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I62" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J62" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>28</v>
-      </c>
-      <c r="G63" t="s">
-        <v>29</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>32</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G64" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H64" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I64" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J64" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>28</v>
-      </c>
-      <c r="G65" t="s">
-        <v>29</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>32</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G66" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H66" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I66" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J66" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>28</v>
-      </c>
-      <c r="G67" t="s">
-        <v>29</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>32</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G68" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H68" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I68" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J68" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>28</v>
-      </c>
-      <c r="G69" t="s">
-        <v>44</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>48</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G70" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H70" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I70" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J70" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>28</v>
-      </c>
-      <c r="G71" t="s">
-        <v>44</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>48</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G72" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H72" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I72" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J72" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>28</v>
-      </c>
-      <c r="G73" t="s">
-        <v>44</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>48</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G74" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H74" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I74" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J74" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>28</v>
-      </c>
-      <c r="G75" t="s">
-        <v>44</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>48</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G76" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H76" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I76" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J76" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>28</v>
-      </c>
-      <c r="G77" t="s">
-        <v>44</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>48</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G78" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H78" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I78" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J78" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>28</v>
-      </c>
-      <c r="G79" t="s">
-        <v>44</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>48</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G80" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H80" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I80" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J80" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>28</v>
-      </c>
-      <c r="G81" t="s">
-        <v>35</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>39</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G82" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H82" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I82" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J82" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G83" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H83" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I83" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="J83" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>28</v>
-      </c>
-      <c r="G84" t="s">
-        <v>38</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>42</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G85" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H85" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I85" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="J85" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>28</v>
-      </c>
-      <c r="G86" t="s">
-        <v>38</v>
-      </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>42</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G87" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H87" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I87" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="J87" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>28</v>
-      </c>
-      <c r="G88" t="s">
-        <v>38</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>42</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G89" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H89" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I89" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="J89" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>28</v>
-      </c>
-      <c r="G90" t="s">
-        <v>29</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>32</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G91" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H91" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I91" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="J91" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>28</v>
-      </c>
-      <c r="G92" t="s">
-        <v>29</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>32</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G93" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H93" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I93" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="J93" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>28</v>
-      </c>
-      <c r="G94" t="s">
-        <v>29</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>32</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G95" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H95" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I95" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="J95" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>28</v>
-      </c>
-      <c r="G96" t="s">
-        <v>29</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>32</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G97" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H97" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I97" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="J97" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>28</v>
-      </c>
-      <c r="G98" t="s">
-        <v>29</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>32</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G99" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H99" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I99" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="J99" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>28</v>
-      </c>
-      <c r="G100" t="s">
-        <v>29</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>32</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G101" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H101" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I101" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="J101" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="G102" t="s">
-        <v>130</v>
+        <v>52</v>
       </c>
       <c r="H102" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="I102" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>136</v>
+      </c>
+      <c r="J102" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>28</v>
-      </c>
-      <c r="G103" t="s">
-        <v>29</v>
-      </c>
-      <c r="H103" t="s"/>
-      <c r="I103" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
+        <v>32</v>
+      </c>
+      <c r="I103" t="s"/>
+      <c r="J103" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="G104" t="s">
-        <v>130</v>
+        <v>52</v>
       </c>
       <c r="H104" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="I104" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>136</v>
+      </c>
+      <c r="J104" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>28</v>
-      </c>
-      <c r="G105" t="s">
-        <v>29</v>
-      </c>
-      <c r="H105" t="s"/>
-      <c r="I105" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
+        <v>32</v>
+      </c>
+      <c r="I105" t="s"/>
+      <c r="J105" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="G106" t="s">
-        <v>130</v>
+        <v>52</v>
       </c>
       <c r="H106" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="I106" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="107" spans="1:9">
+      <c r="J106" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>28</v>
-      </c>
-      <c r="G107" t="s">
-        <v>29</v>
-      </c>
-      <c r="H107" t="s"/>
-      <c r="I107" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G107" t="s"/>
+      <c r="H107" t="s">
+        <v>32</v>
+      </c>
+      <c r="I107" t="s"/>
+      <c r="J107" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="G108" t="s">
-        <v>130</v>
+        <v>52</v>
       </c>
       <c r="H108" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="I108" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>136</v>
+      </c>
+      <c r="J108" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>28</v>
-      </c>
-      <c r="G109" t="s">
-        <v>29</v>
-      </c>
-      <c r="H109" t="s"/>
-      <c r="I109" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G109" t="s"/>
+      <c r="H109" t="s">
+        <v>32</v>
+      </c>
+      <c r="I109" t="s"/>
+      <c r="J109" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="G110" t="s">
-        <v>130</v>
+        <v>52</v>
       </c>
       <c r="H110" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="I110" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>136</v>
+      </c>
+      <c r="J110" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>28</v>
-      </c>
-      <c r="G111" t="s">
-        <v>29</v>
-      </c>
-      <c r="H111" t="s"/>
-      <c r="I111" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G111" t="s"/>
+      <c r="H111" t="s">
+        <v>32</v>
+      </c>
+      <c r="I111" t="s"/>
+      <c r="J111" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="G112" t="s">
-        <v>130</v>
+        <v>52</v>
       </c>
       <c r="H112" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="I112" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>136</v>
+      </c>
+      <c r="J112" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>28</v>
-      </c>
-      <c r="G113" t="s">
-        <v>29</v>
-      </c>
-      <c r="H113" t="s"/>
-      <c r="I113" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G113" t="s"/>
+      <c r="H113" t="s">
+        <v>32</v>
+      </c>
+      <c r="I113" t="s"/>
+      <c r="J113" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="G114" t="s">
-        <v>130</v>
+        <v>52</v>
       </c>
       <c r="H114" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="I114" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>136</v>
+      </c>
+      <c r="J114" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>28</v>
-      </c>
-      <c r="G115" t="s">
-        <v>44</v>
-      </c>
-      <c r="H115" t="s"/>
-      <c r="I115" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G115" t="s"/>
+      <c r="H115" t="s">
+        <v>48</v>
+      </c>
+      <c r="I115" t="s"/>
+      <c r="J115" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="G116" t="s">
-        <v>130</v>
+        <v>52</v>
       </c>
       <c r="H116" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="I116" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>136</v>
+      </c>
+      <c r="J116" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>28</v>
-      </c>
-      <c r="G117" t="s">
-        <v>44</v>
-      </c>
-      <c r="H117" t="s"/>
-      <c r="I117" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G117" t="s"/>
+      <c r="H117" t="s">
+        <v>48</v>
+      </c>
+      <c r="I117" t="s"/>
+      <c r="J117" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="G118" t="s">
-        <v>130</v>
+        <v>52</v>
       </c>
       <c r="H118" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="I118" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>136</v>
+      </c>
+      <c r="J118" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>28</v>
-      </c>
-      <c r="G119" t="s">
-        <v>44</v>
-      </c>
-      <c r="H119" t="s"/>
-      <c r="I119" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G119" t="s"/>
+      <c r="H119" t="s">
+        <v>48</v>
+      </c>
+      <c r="I119" t="s"/>
+      <c r="J119" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="G120" t="s">
-        <v>130</v>
+        <v>52</v>
       </c>
       <c r="H120" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="I120" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>136</v>
+      </c>
+      <c r="J120" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>28</v>
-      </c>
-      <c r="G121" t="s">
-        <v>44</v>
-      </c>
-      <c r="H121" t="s"/>
-      <c r="I121" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G121" t="s"/>
+      <c r="H121" t="s">
+        <v>48</v>
+      </c>
+      <c r="I121" t="s"/>
+      <c r="J121" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="G122" t="s">
-        <v>130</v>
+        <v>52</v>
       </c>
       <c r="H122" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="I122" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>136</v>
+      </c>
+      <c r="J122" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="G123" t="s">
-        <v>130</v>
+        <v>52</v>
       </c>
       <c r="H123" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="I123" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>136</v>
+      </c>
+      <c r="J123" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="G124" t="s">
-        <v>153</v>
+        <v>52</v>
       </c>
       <c r="H124" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="I124" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>159</v>
+      </c>
+      <c r="J124" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>28</v>
-      </c>
-      <c r="G125" t="s">
-        <v>156</v>
-      </c>
-      <c r="H125" t="s"/>
-      <c r="I125" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G125" t="s"/>
+      <c r="H125" t="s">
+        <v>161</v>
+      </c>
+      <c r="I125" t="s"/>
+      <c r="J125" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>28</v>
-      </c>
-      <c r="G126" t="s">
-        <v>29</v>
-      </c>
-      <c r="H126" t="s"/>
-      <c r="I126" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G126" t="s"/>
+      <c r="H126" t="s">
+        <v>32</v>
+      </c>
+      <c r="I126" t="s"/>
+      <c r="J126" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>28</v>
-      </c>
-      <c r="G127" t="s">
-        <v>156</v>
-      </c>
-      <c r="H127" t="s"/>
-      <c r="I127" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G127" t="s"/>
+      <c r="H127" t="s">
+        <v>161</v>
+      </c>
+      <c r="I127" t="s"/>
+      <c r="J127" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>28</v>
-      </c>
-      <c r="G128" t="s">
-        <v>35</v>
-      </c>
-      <c r="H128" t="s"/>
-      <c r="I128" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G128" t="s"/>
+      <c r="H128" t="s">
+        <v>39</v>
+      </c>
+      <c r="I128" t="s"/>
+      <c r="J128" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G129" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H129" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I129" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J129" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>28</v>
-      </c>
-      <c r="G130" t="s">
-        <v>35</v>
-      </c>
-      <c r="H130" t="s"/>
-      <c r="I130" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G130" t="s"/>
+      <c r="H130" t="s">
+        <v>39</v>
+      </c>
+      <c r="I130" t="s"/>
+      <c r="J130" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>28</v>
-      </c>
-      <c r="G131" t="s">
-        <v>38</v>
-      </c>
-      <c r="H131" t="s"/>
-      <c r="I131" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G131" t="s"/>
+      <c r="H131" t="s">
+        <v>42</v>
+      </c>
+      <c r="I131" t="s"/>
+      <c r="J131" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>28</v>
-      </c>
-      <c r="G132" t="s">
-        <v>44</v>
-      </c>
-      <c r="H132" t="s"/>
-      <c r="I132" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G132" t="s"/>
+      <c r="H132" t="s">
+        <v>48</v>
+      </c>
+      <c r="I132" t="s"/>
+      <c r="J132" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>28</v>
-      </c>
-      <c r="G133" t="s">
-        <v>156</v>
-      </c>
-      <c r="H133" t="s"/>
-      <c r="I133" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G133" t="s"/>
+      <c r="H133" t="s">
+        <v>161</v>
+      </c>
+      <c r="I133" t="s"/>
+      <c r="J133" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>28</v>
-      </c>
-      <c r="G134" t="s">
-        <v>41</v>
-      </c>
-      <c r="H134" t="s"/>
-      <c r="I134" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G134" t="s"/>
+      <c r="H134" t="s">
+        <v>45</v>
+      </c>
+      <c r="I134" t="s"/>
+      <c r="J134" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>28</v>
-      </c>
-      <c r="G135" t="s">
-        <v>156</v>
-      </c>
-      <c r="H135" t="s"/>
-      <c r="I135" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G135" t="s"/>
+      <c r="H135" t="s">
+        <v>161</v>
+      </c>
+      <c r="I135" t="s"/>
+      <c r="J135" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="G136" t="s">
-        <v>153</v>
+        <v>52</v>
       </c>
       <c r="H136" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="I136" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>159</v>
+      </c>
+      <c r="J136" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>28</v>
-      </c>
-      <c r="G137" t="s">
-        <v>169</v>
-      </c>
-      <c r="H137" t="s"/>
-      <c r="I137" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G137" t="s"/>
+      <c r="H137" t="s">
+        <v>174</v>
+      </c>
+      <c r="I137" t="s"/>
+      <c r="J137" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G138" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H138" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I138" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J138" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>28</v>
-      </c>
-      <c r="G139" t="s">
-        <v>169</v>
-      </c>
-      <c r="H139" t="s"/>
-      <c r="I139" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G139" t="s"/>
+      <c r="H139" t="s">
+        <v>174</v>
+      </c>
+      <c r="I139" t="s"/>
+      <c r="J139" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>28</v>
-      </c>
-      <c r="G140" t="s">
-        <v>35</v>
-      </c>
-      <c r="H140" t="s"/>
-      <c r="I140" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G140" t="s"/>
+      <c r="H140" t="s">
+        <v>39</v>
+      </c>
+      <c r="I140" t="s"/>
+      <c r="J140" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>28</v>
-      </c>
-      <c r="G141" t="s">
-        <v>169</v>
-      </c>
-      <c r="H141" t="s"/>
-      <c r="I141" t="s">
+        <v>31</v>
+      </c>
+      <c r="G141" t="s"/>
+      <c r="H141" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="142" spans="1:9">
+      <c r="I141" t="s"/>
+      <c r="J141" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>28</v>
-      </c>
-      <c r="G142" t="s">
-        <v>35</v>
-      </c>
-      <c r="H142" t="s"/>
-      <c r="I142" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G142" t="s"/>
+      <c r="H142" t="s">
+        <v>39</v>
+      </c>
+      <c r="I142" t="s"/>
+      <c r="J142" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>28</v>
-      </c>
-      <c r="G143" t="s">
-        <v>169</v>
-      </c>
-      <c r="H143" t="s"/>
-      <c r="I143" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G143" t="s"/>
+      <c r="H143" t="s">
+        <v>174</v>
+      </c>
+      <c r="I143" t="s"/>
+      <c r="J143" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>28</v>
-      </c>
-      <c r="G144" t="s">
-        <v>41</v>
-      </c>
-      <c r="H144" t="s"/>
-      <c r="I144" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G144" t="s"/>
+      <c r="H144" t="s">
+        <v>45</v>
+      </c>
+      <c r="I144" t="s"/>
+      <c r="J144" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G145" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H145" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I145" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J145" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>28</v>
-      </c>
-      <c r="G146" t="s">
-        <v>41</v>
-      </c>
-      <c r="H146" t="s"/>
-      <c r="I146" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G146" t="s"/>
+      <c r="H146" t="s">
+        <v>45</v>
+      </c>
+      <c r="I146" t="s"/>
+      <c r="J146" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>28</v>
-      </c>
-      <c r="G147" t="s">
-        <v>169</v>
-      </c>
-      <c r="H147" t="s"/>
-      <c r="I147" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G147" t="s"/>
+      <c r="H147" t="s">
+        <v>174</v>
+      </c>
+      <c r="I147" t="s"/>
+      <c r="J147" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="G148" t="s">
-        <v>153</v>
+        <v>52</v>
       </c>
       <c r="H148" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="I148" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>159</v>
+      </c>
+      <c r="J148" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>28</v>
-      </c>
-      <c r="G149" t="s">
-        <v>156</v>
-      </c>
-      <c r="H149" t="s"/>
-      <c r="I149" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G149" t="s"/>
+      <c r="H149" t="s">
+        <v>161</v>
+      </c>
+      <c r="I149" t="s"/>
+      <c r="J149" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>28</v>
-      </c>
-      <c r="G150" t="s">
-        <v>35</v>
-      </c>
-      <c r="H150" t="s"/>
-      <c r="I150" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G150" t="s"/>
+      <c r="H150" t="s">
+        <v>39</v>
+      </c>
+      <c r="I150" t="s"/>
+      <c r="J150" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>28</v>
-      </c>
-      <c r="G151" t="s">
-        <v>156</v>
-      </c>
-      <c r="H151" t="s"/>
-      <c r="I151" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G151" t="s"/>
+      <c r="H151" t="s">
+        <v>161</v>
+      </c>
+      <c r="I151" t="s"/>
+      <c r="J151" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>28</v>
-      </c>
-      <c r="G152" t="s">
-        <v>35</v>
-      </c>
-      <c r="H152" t="s"/>
-      <c r="I152" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G152" t="s"/>
+      <c r="H152" t="s">
+        <v>39</v>
+      </c>
+      <c r="I152" t="s"/>
+      <c r="J152" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>28</v>
-      </c>
-      <c r="G153" t="s">
-        <v>156</v>
-      </c>
-      <c r="H153" t="s"/>
-      <c r="I153" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G153" t="s"/>
+      <c r="H153" t="s">
+        <v>161</v>
+      </c>
+      <c r="I153" t="s"/>
+      <c r="J153" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>28</v>
-      </c>
-      <c r="G154" t="s">
-        <v>35</v>
-      </c>
-      <c r="H154" t="s"/>
-      <c r="I154" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G154" t="s"/>
+      <c r="H154" t="s">
+        <v>39</v>
+      </c>
+      <c r="I154" t="s"/>
+      <c r="J154" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>28</v>
-      </c>
-      <c r="G155" t="s">
-        <v>156</v>
-      </c>
-      <c r="H155" t="s"/>
-      <c r="I155" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G155" t="s"/>
+      <c r="H155" t="s">
+        <v>161</v>
+      </c>
+      <c r="I155" t="s"/>
+      <c r="J155" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="G156" t="s">
-        <v>153</v>
+        <v>52</v>
       </c>
       <c r="H156" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="I156" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>159</v>
+      </c>
+      <c r="J156" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G157" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H157" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I157" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J157" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>28</v>
-      </c>
-      <c r="G158" t="s">
-        <v>35</v>
-      </c>
-      <c r="H158" t="s"/>
-      <c r="I158" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G158" t="s"/>
+      <c r="H158" t="s">
+        <v>39</v>
+      </c>
+      <c r="I158" t="s"/>
+      <c r="J158" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G159" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H159" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I159" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J159" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>28</v>
-      </c>
-      <c r="G160" t="s">
-        <v>35</v>
-      </c>
-      <c r="H160" t="s"/>
-      <c r="I160" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G160" t="s"/>
+      <c r="H160" t="s">
+        <v>39</v>
+      </c>
+      <c r="I160" t="s"/>
+      <c r="J160" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G161" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H161" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I161" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J161" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F162" t="s">
-        <v>28</v>
-      </c>
-      <c r="G162" t="s">
-        <v>35</v>
-      </c>
-      <c r="H162" t="s"/>
-      <c r="I162" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G162" t="s"/>
+      <c r="H162" t="s">
+        <v>39</v>
+      </c>
+      <c r="I162" t="s"/>
+      <c r="J162" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F163" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G163" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H163" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I163" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J163" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>28</v>
-      </c>
-      <c r="G164" t="s">
-        <v>35</v>
-      </c>
-      <c r="H164" t="s"/>
-      <c r="I164" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G164" t="s"/>
+      <c r="H164" t="s">
+        <v>39</v>
+      </c>
+      <c r="I164" t="s"/>
+      <c r="J164" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F165" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G165" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H165" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I165" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J165" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F166" t="s">
-        <v>28</v>
-      </c>
-      <c r="G166" t="s">
-        <v>35</v>
-      </c>
-      <c r="H166" t="s"/>
-      <c r="I166" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G166" t="s"/>
+      <c r="H166" t="s">
+        <v>39</v>
+      </c>
+      <c r="I166" t="s"/>
+      <c r="J166" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F167" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G167" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H167" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I167" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J167" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F168" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="G168" t="s">
-        <v>202</v>
+        <v>52</v>
       </c>
       <c r="H168" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="I168" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>208</v>
+      </c>
+      <c r="J168" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F169" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G169" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H169" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I169" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J169" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E170" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F170" t="s">
-        <v>28</v>
-      </c>
-      <c r="G170" t="s">
-        <v>35</v>
-      </c>
-      <c r="H170" t="s"/>
-      <c r="I170" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G170" t="s"/>
+      <c r="H170" t="s">
+        <v>39</v>
+      </c>
+      <c r="I170" t="s"/>
+      <c r="J170" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E171" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F171" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G171" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H171" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I171" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J171" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E172" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F172" t="s">
-        <v>28</v>
-      </c>
-      <c r="G172" t="s">
-        <v>35</v>
-      </c>
-      <c r="H172" t="s"/>
-      <c r="I172" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G172" t="s"/>
+      <c r="H172" t="s">
+        <v>39</v>
+      </c>
+      <c r="I172" t="s"/>
+      <c r="J172" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E173" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F173" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G173" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H173" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I173" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J173" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E174" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F174" t="s">
-        <v>28</v>
-      </c>
-      <c r="G174" t="s">
-        <v>29</v>
-      </c>
-      <c r="H174" t="s"/>
-      <c r="I174" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G174" t="s"/>
+      <c r="H174" t="s">
+        <v>32</v>
+      </c>
+      <c r="I174" t="s"/>
+      <c r="J174" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E175" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F175" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G175" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H175" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I175" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J175" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E176" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F176" t="s">
-        <v>28</v>
-      </c>
-      <c r="G176" t="s">
-        <v>29</v>
-      </c>
-      <c r="H176" t="s"/>
-      <c r="I176" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G176" t="s"/>
+      <c r="H176" t="s">
+        <v>32</v>
+      </c>
+      <c r="I176" t="s"/>
+      <c r="J176" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E177" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F177" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G177" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H177" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I177" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J177" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E178" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F178" t="s">
-        <v>28</v>
-      </c>
-      <c r="G178" t="s">
-        <v>29</v>
-      </c>
-      <c r="H178" t="s"/>
-      <c r="I178" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G178" t="s"/>
+      <c r="H178" t="s">
+        <v>32</v>
+      </c>
+      <c r="I178" t="s"/>
+      <c r="J178" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E179" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F179" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G179" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H179" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I179" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J179" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E180" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F180" t="s">
-        <v>28</v>
-      </c>
-      <c r="G180" t="s">
-        <v>29</v>
-      </c>
-      <c r="H180" t="s"/>
-      <c r="I180" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G180" t="s"/>
+      <c r="H180" t="s">
+        <v>32</v>
+      </c>
+      <c r="I180" t="s"/>
+      <c r="J180" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E181" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F181" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G181" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H181" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I181" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J181" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E182" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F182" t="s">
-        <v>28</v>
-      </c>
-      <c r="G182" t="s">
-        <v>29</v>
-      </c>
-      <c r="H182" t="s"/>
-      <c r="I182" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G182" t="s"/>
+      <c r="H182" t="s">
+        <v>32</v>
+      </c>
+      <c r="I182" t="s"/>
+      <c r="J182" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E183" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F183" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G183" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H183" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I183" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J183" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E184" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F184" t="s">
-        <v>28</v>
-      </c>
-      <c r="G184" t="s">
-        <v>29</v>
-      </c>
-      <c r="H184" t="s"/>
-      <c r="I184" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G184" t="s"/>
+      <c r="H184" t="s">
+        <v>32</v>
+      </c>
+      <c r="I184" t="s"/>
+      <c r="J184" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E185" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F185" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G185" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H185" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I185" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J185" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E186" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F186" t="s">
-        <v>28</v>
-      </c>
-      <c r="G186" t="s">
-        <v>29</v>
-      </c>
-      <c r="H186" t="s"/>
-      <c r="I186" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G186" t="s"/>
+      <c r="H186" t="s">
+        <v>32</v>
+      </c>
+      <c r="I186" t="s"/>
+      <c r="J186" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E187" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F187" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G187" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H187" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I187" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J187" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E188" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F188" t="s">
-        <v>28</v>
-      </c>
-      <c r="G188" t="s">
-        <v>29</v>
-      </c>
-      <c r="H188" t="s"/>
-      <c r="I188" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G188" t="s"/>
+      <c r="H188" t="s">
+        <v>32</v>
+      </c>
+      <c r="I188" t="s"/>
+      <c r="J188" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E189" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F189" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G189" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H189" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I189" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J189" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E190" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F190" t="s">
-        <v>28</v>
-      </c>
-      <c r="G190" t="s">
-        <v>44</v>
-      </c>
-      <c r="H190" t="s"/>
-      <c r="I190" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G190" t="s"/>
+      <c r="H190" t="s">
+        <v>48</v>
+      </c>
+      <c r="I190" t="s"/>
+      <c r="J190" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E191" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F191" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G191" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H191" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I191" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J191" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E192" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F192" t="s">
-        <v>28</v>
-      </c>
-      <c r="G192" t="s">
-        <v>44</v>
-      </c>
-      <c r="H192" t="s"/>
-      <c r="I192" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G192" t="s"/>
+      <c r="H192" t="s">
+        <v>48</v>
+      </c>
+      <c r="I192" t="s"/>
+      <c r="J192" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E193" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F193" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G193" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H193" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I193" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J193" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E194" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F194" t="s">
-        <v>28</v>
-      </c>
-      <c r="G194" t="s">
-        <v>44</v>
-      </c>
-      <c r="H194" t="s"/>
-      <c r="I194" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G194" t="s"/>
+      <c r="H194" t="s">
+        <v>48</v>
+      </c>
+      <c r="I194" t="s"/>
+      <c r="J194" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E195" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F195" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G195" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H195" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I195" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J195" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E196" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F196" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="G196" t="s">
-        <v>202</v>
+        <v>52</v>
       </c>
       <c r="H196" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="I196" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9">
+        <v>208</v>
+      </c>
+      <c r="J196" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E197" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F197" t="s">
-        <v>28</v>
-      </c>
-      <c r="G197" t="s">
-        <v>169</v>
-      </c>
-      <c r="H197" t="s"/>
-      <c r="I197" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G197" t="s"/>
+      <c r="H197" t="s">
+        <v>174</v>
+      </c>
+      <c r="I197" t="s"/>
+      <c r="J197" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E198" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F198" t="s">
-        <v>28</v>
-      </c>
-      <c r="G198" t="s">
-        <v>29</v>
-      </c>
-      <c r="H198" t="s"/>
-      <c r="I198" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G198" t="s"/>
+      <c r="H198" t="s">
+        <v>32</v>
+      </c>
+      <c r="I198" t="s"/>
+      <c r="J198" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E199" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F199" t="s">
-        <v>28</v>
-      </c>
-      <c r="G199" t="s">
-        <v>169</v>
-      </c>
-      <c r="H199" t="s"/>
-      <c r="I199" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G199" t="s"/>
+      <c r="H199" t="s">
+        <v>174</v>
+      </c>
+      <c r="I199" t="s"/>
+      <c r="J199" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D200" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E200" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F200" t="s">
-        <v>28</v>
-      </c>
-      <c r="G200" t="s">
-        <v>35</v>
-      </c>
-      <c r="H200" t="s"/>
-      <c r="I200" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G200" t="s"/>
+      <c r="H200" t="s">
+        <v>39</v>
+      </c>
+      <c r="I200" t="s"/>
+      <c r="J200" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C201" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D201" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E201" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F201" t="s">
-        <v>28</v>
-      </c>
-      <c r="G201" t="s">
-        <v>169</v>
-      </c>
-      <c r="H201" t="s"/>
-      <c r="I201" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G201" t="s"/>
+      <c r="H201" t="s">
+        <v>174</v>
+      </c>
+      <c r="I201" t="s"/>
+      <c r="J201" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C202" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D202" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E202" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F202" t="s">
-        <v>28</v>
-      </c>
-      <c r="G202" t="s">
-        <v>35</v>
-      </c>
-      <c r="H202" t="s"/>
-      <c r="I202" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G202" t="s"/>
+      <c r="H202" t="s">
+        <v>39</v>
+      </c>
+      <c r="I202" t="s"/>
+      <c r="J202" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C203" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D203" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E203" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F203" t="s">
-        <v>28</v>
-      </c>
-      <c r="G203" t="s">
-        <v>169</v>
-      </c>
-      <c r="H203" t="s"/>
-      <c r="I203" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G203" t="s"/>
+      <c r="H203" t="s">
+        <v>174</v>
+      </c>
+      <c r="I203" t="s"/>
+      <c r="J203" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10">
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C204" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D204" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E204" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F204" t="s">
-        <v>28</v>
-      </c>
-      <c r="G204" t="s">
-        <v>35</v>
-      </c>
-      <c r="H204" t="s"/>
-      <c r="I204" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G204" t="s"/>
+      <c r="H204" t="s">
+        <v>39</v>
+      </c>
+      <c r="I204" t="s"/>
+      <c r="J204" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10">
       <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C205" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D205" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E205" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F205" t="s">
-        <v>28</v>
-      </c>
-      <c r="G205" t="s">
-        <v>169</v>
-      </c>
-      <c r="H205" t="s"/>
-      <c r="I205" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G205" t="s"/>
+      <c r="H205" t="s">
+        <v>174</v>
+      </c>
+      <c r="I205" t="s"/>
+      <c r="J205" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10">
       <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C206" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D206" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E206" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F206" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="G206" t="s">
-        <v>202</v>
+        <v>52</v>
       </c>
       <c r="H206" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="I206" t="s">
-        <v>241</v>
+        <v>208</v>
+      </c>
+      <c r="J206" t="s">
+        <v>246</v>
       </c>
     </row>
   </sheetData>
